--- a/fig1/Supplements1.xlsx
+++ b/fig1/Supplements1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3392E70-16DA-4562-B832-B9C79C36F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E511D8D-3443-48C4-B79C-9AD9EBFAD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4339,10 +4339,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4625,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(AF6=1,AJ6,AI6)</f>
         <v>trp-L[M+H]+</v>
       </c>
       <c r="AH6" s="25">
@@ -5947,7 +5947,7 @@
         <v>4.5755396287649797</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="11"/>
+        <f>IF(AD10&gt;AE10,1,0)</f>
         <v>1</v>
       </c>
       <c r="AG10" t="str">
@@ -25901,7 +25901,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
+      <c r="A1" s="29"/>
       <c r="B1" s="15" t="s">
         <v>168</v>
       </c>
@@ -98464,7 +98464,7 @@
       <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="29" t="str">
+      <c r="G5" s="30" t="str">
         <f>VLOOKUP(A5,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -98498,7 +98498,7 @@
       <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30"/>
       <c r="J6" t="str">
         <v>Cofactor Metabolism</v>
       </c>
@@ -98563,7 +98563,7 @@
       <c r="F8" s="27">
         <v>0</v>
       </c>
-      <c r="G8" s="29" t="str">
+      <c r="G8" s="30" t="str">
         <f>VLOOKUP(A8,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -98597,7 +98597,7 @@
       <c r="F9" s="27">
         <v>0</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
@@ -98702,7 +98702,7 @@
       <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="30" t="str">
         <f>VLOOKUP(A13,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -98729,7 +98729,7 @@
       <c r="F14" s="27">
         <v>0</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
@@ -98805,7 +98805,7 @@
       <c r="F17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="29" t="str">
+      <c r="G17" s="30" t="str">
         <f>VLOOKUP(A17,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Nucleotide Metabolism</v>
       </c>
@@ -98831,7 +98831,7 @@
       <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -98960,7 +98960,7 @@
       <c r="F23" s="27">
         <v>1</v>
       </c>
-      <c r="G23" s="29" t="str">
+      <c r="G23" s="30" t="str">
         <f>VLOOKUP(A23,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Nucleotide Metabolism</v>
       </c>
@@ -98986,7 +98986,7 @@
       <c r="F24" s="27">
         <v>1</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -99035,7 +99035,7 @@
       <c r="F26" s="27">
         <v>0</v>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="30" t="str">
         <f>VLOOKUP(A26,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Nucleotide Metabolism</v>
       </c>
@@ -99061,7 +99061,7 @@
       <c r="F27" s="27">
         <v>0</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
@@ -99085,7 +99085,7 @@
       <c r="F28" s="27">
         <v>0</v>
       </c>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="30" t="str">
         <f>VLOOKUP(A28,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Nucleotide Metabolism</v>
       </c>
@@ -99111,7 +99111,7 @@
       <c r="F29" s="27">
         <v>0</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -99189,7 +99189,7 @@
       <c r="F32" s="27">
         <v>1</v>
       </c>
-      <c r="G32" s="29" t="str">
+      <c r="G32" s="30" t="str">
         <f>VLOOKUP(A32,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Cofactor Metabolism</v>
       </c>
@@ -99216,7 +99216,7 @@
       <c r="F33" s="27">
         <v>1</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
@@ -99267,7 +99267,7 @@
       <c r="F35" s="27">
         <v>0</v>
       </c>
-      <c r="G35" s="29" t="str">
+      <c r="G35" s="30" t="str">
         <f>VLOOKUP(A35,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -99294,7 +99294,7 @@
       <c r="F36" s="27">
         <v>0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
@@ -99344,7 +99344,7 @@
       <c r="F38" s="27">
         <v>0</v>
       </c>
-      <c r="G38" s="29" t="str">
+      <c r="G38" s="30" t="str">
         <f>VLOOKUP(A38,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -99370,7 +99370,7 @@
       <c r="F39" s="27">
         <v>0</v>
       </c>
-      <c r="G39" s="29"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -99393,7 +99393,7 @@
       <c r="F40" s="27">
         <v>0</v>
       </c>
-      <c r="G40" s="29"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
@@ -99416,7 +99416,7 @@
       <c r="F41" s="27">
         <v>0</v>
       </c>
-      <c r="G41" s="29" t="str">
+      <c r="G41" s="30" t="str">
         <f>VLOOKUP(A41,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Cofactor Metabolism</v>
       </c>
@@ -99442,7 +99442,7 @@
       <c r="F42" s="27">
         <v>0</v>
       </c>
-      <c r="G42" s="29"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -99520,7 +99520,7 @@
       <c r="F45" s="27">
         <v>0</v>
       </c>
-      <c r="G45" s="29" t="str">
+      <c r="G45" s="30" t="str">
         <f>VLOOKUP(A45,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Other</v>
       </c>
@@ -99546,7 +99546,7 @@
       <c r="F46" s="27">
         <v>0</v>
       </c>
-      <c r="G46" s="29"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -99570,7 +99570,7 @@
       <c r="F47" s="27">
         <v>0</v>
       </c>
-      <c r="G47" s="29"/>
+      <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -99593,7 +99593,7 @@
       <c r="F48" s="27">
         <v>0</v>
       </c>
-      <c r="G48" s="29"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -99616,7 +99616,7 @@
       <c r="F49" s="27">
         <v>0</v>
       </c>
-      <c r="G49" s="29"/>
+      <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="s">
@@ -100015,7 +100015,7 @@
       <c r="F64" s="27">
         <v>0</v>
       </c>
-      <c r="G64" s="29" t="str">
+      <c r="G64" s="30" t="str">
         <f>VLOOKUP(A64,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100041,7 +100041,7 @@
       <c r="F65" s="27">
         <v>0</v>
       </c>
-      <c r="G65" s="29"/>
+      <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
@@ -100064,7 +100064,7 @@
       <c r="F66" s="27">
         <v>0</v>
       </c>
-      <c r="G66" s="29" t="str">
+      <c r="G66" s="30" t="str">
         <f>VLOOKUP(A66,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100091,7 +100091,7 @@
       <c r="F67" s="27">
         <v>0</v>
       </c>
-      <c r="G67" s="29"/>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -100114,7 +100114,7 @@
       <c r="F68" s="27">
         <v>0</v>
       </c>
-      <c r="G68" s="29"/>
+      <c r="G68" s="30"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
@@ -100137,7 +100137,7 @@
       <c r="F69" s="27">
         <v>0</v>
       </c>
-      <c r="G69" s="29" t="str">
+      <c r="G69" s="30" t="str">
         <f>VLOOKUP(A69,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100163,7 +100163,7 @@
       <c r="F70" s="27">
         <v>0</v>
       </c>
-      <c r="G70" s="29"/>
+      <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -100186,7 +100186,7 @@
       <c r="F71" s="27">
         <v>0</v>
       </c>
-      <c r="G71" s="29" t="str">
+      <c r="G71" s="30" t="str">
         <f>VLOOKUP(A71,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100212,7 +100212,7 @@
       <c r="F72" s="27">
         <v>0</v>
       </c>
-      <c r="G72" s="29"/>
+      <c r="G72" s="30"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
@@ -100262,7 +100262,7 @@
       <c r="F74" s="27">
         <v>0</v>
       </c>
-      <c r="G74" s="29" t="str">
+      <c r="G74" s="30" t="str">
         <f>VLOOKUP(A74,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100288,7 +100288,7 @@
       <c r="F75" s="27">
         <v>0</v>
       </c>
-      <c r="G75" s="29"/>
+      <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="27" t="s">
@@ -100311,7 +100311,7 @@
       <c r="F76" s="27">
         <v>0</v>
       </c>
-      <c r="G76" s="29" t="str">
+      <c r="G76" s="30" t="str">
         <f>VLOOKUP(A76,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100337,7 +100337,7 @@
       <c r="F77" s="27">
         <v>0</v>
       </c>
-      <c r="G77" s="29"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -100360,7 +100360,7 @@
       <c r="F78" s="27">
         <v>0</v>
       </c>
-      <c r="G78" s="29" t="str">
+      <c r="G78" s="30" t="str">
         <f>VLOOKUP(A78,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100386,7 +100386,7 @@
       <c r="F79" s="27">
         <v>0</v>
       </c>
-      <c r="G79" s="29"/>
+      <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
@@ -100409,7 +100409,7 @@
       <c r="F80" s="27">
         <v>0</v>
       </c>
-      <c r="G80" s="29" t="str">
+      <c r="G80" s="30" t="str">
         <f>VLOOKUP(A80,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100435,7 +100435,7 @@
       <c r="F81" s="27">
         <v>0</v>
       </c>
-      <c r="G81" s="29"/>
+      <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -100537,7 +100537,7 @@
       <c r="F85" s="27">
         <v>0</v>
       </c>
-      <c r="G85" s="29" t="str">
+      <c r="G85" s="30" t="str">
         <f>VLOOKUP(A85,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Central Metabolism</v>
       </c>
@@ -100564,7 +100564,7 @@
       <c r="F86" s="27">
         <v>0</v>
       </c>
-      <c r="G86" s="29"/>
+      <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
@@ -100588,7 +100588,7 @@
       <c r="F87" s="27">
         <v>0</v>
       </c>
-      <c r="G87" s="29"/>
+      <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -100612,7 +100612,7 @@
       <c r="F88" s="27">
         <v>0</v>
       </c>
-      <c r="G88" s="29" t="str">
+      <c r="G88" s="30" t="str">
         <f>VLOOKUP(A88,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Antioxidants</v>
       </c>
@@ -100639,7 +100639,7 @@
       <c r="F89" s="27">
         <v>0</v>
       </c>
-      <c r="G89" s="29"/>
+      <c r="G89" s="30"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
@@ -100662,7 +100662,7 @@
       <c r="F90" s="27">
         <v>0</v>
       </c>
-      <c r="G90" s="29"/>
+      <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
@@ -100685,7 +100685,7 @@
       <c r="F91" s="27">
         <v>0</v>
       </c>
-      <c r="G91" s="29"/>
+      <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -100708,7 +100708,7 @@
       <c r="F92" s="27">
         <v>0</v>
       </c>
-      <c r="G92" s="29"/>
+      <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -100732,7 +100732,7 @@
       <c r="F93" s="27">
         <v>0</v>
       </c>
-      <c r="G93" s="29"/>
+      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -100755,7 +100755,7 @@
       <c r="F94" s="27">
         <v>0</v>
       </c>
-      <c r="G94" s="29"/>
+      <c r="G94" s="30"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
@@ -100779,7 +100779,7 @@
       <c r="F95" s="27">
         <v>0</v>
       </c>
-      <c r="G95" s="29" t="str">
+      <c r="G95" s="30" t="str">
         <f>VLOOKUP(A95,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -100806,7 +100806,7 @@
       <c r="F96" s="27">
         <v>0</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="30"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
@@ -100830,7 +100830,7 @@
       <c r="F97" s="27">
         <v>0</v>
       </c>
-      <c r="G97" s="29" t="str">
+      <c r="G97" s="30" t="str">
         <f>VLOOKUP(A97,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Other</v>
       </c>
@@ -100857,7 +100857,7 @@
       <c r="F98" s="27">
         <v>0</v>
       </c>
-      <c r="G98" s="29"/>
+      <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
@@ -100881,7 +100881,7 @@
       <c r="F99" s="27">
         <v>0</v>
       </c>
-      <c r="G99" s="29"/>
+      <c r="G99" s="30"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
@@ -100932,7 +100932,7 @@
       <c r="F101" s="27">
         <v>0</v>
       </c>
-      <c r="G101" s="29" t="str">
+      <c r="G101" s="30" t="str">
         <f>VLOOKUP(A101,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Amino Acid Metabolism</v>
       </c>
@@ -100959,7 +100959,7 @@
       <c r="F102" s="27">
         <v>0</v>
       </c>
-      <c r="G102" s="29"/>
+      <c r="G102" s="30"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="27" t="s">
@@ -100983,7 +100983,7 @@
       <c r="F103" s="27">
         <v>0</v>
       </c>
-      <c r="G103" s="29" t="str">
+      <c r="G103" s="30" t="str">
         <f>VLOOKUP(A103,Analytical_Standards!$C$2:$K$161,9,FALSE)</f>
         <v>Other</v>
       </c>
@@ -101010,7 +101010,7 @@
       <c r="F104" s="27">
         <v>0</v>
       </c>
-      <c r="G104" s="29"/>
+      <c r="G104" s="30"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F105">
@@ -101020,16 +101020,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G94"/>
-    <mergeCell ref="G95:G96"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G103:G104"/>
     <mergeCell ref="G5:G6"/>
@@ -101046,6 +101036,16 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G88:G94"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fig1/Supplements1.xlsx
+++ b/fig1/Supplements1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E511D8D-3443-48C4-B79C-9AD9EBFAD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63246A88-F75D-4A6B-9646-721E0A634FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
     <sheet name="12C13C_interferences" sheetId="19" r:id="rId2"/>
     <sheet name="fig1e" sheetId="18" r:id="rId3"/>
     <sheet name="fig1e_interferences" sheetId="20" r:id="rId4"/>
+    <sheet name="explanation_for_nonsignificant" sheetId="21" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="1349">
   <si>
     <t>#</t>
   </si>
@@ -4100,6 +4101,12 @@
   </si>
   <si>
     <t>#Background peaks picked</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -4625,44 +4632,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="S121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" customWidth="1"/>
-    <col min="15" max="15" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.26953125" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.54296875" customWidth="1"/>
-    <col min="22" max="22" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.1796875" customWidth="1"/>
-    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" customWidth="1"/>
-    <col min="29" max="29" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4894,7 +4901,7 @@
         <v>133.03752899999998</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4999,7 +5006,7 @@
         <v>3.0496712507941699</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF66" si="11">IF(AD3&gt;AE3,1,0)</f>
+        <f>IF(AD3&gt;AE3,1,0)</f>
         <v>0</v>
       </c>
       <c r="AG3" t="str">
@@ -5019,7 +5026,7 @@
         <v>147.053179</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5124,7 +5131,7 @@
         <v>8.8223646351729794</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AF4:AF66" si="11">IF(AD4&gt;AE4,1,0)</f>
         <v>1</v>
       </c>
       <c r="AG4" t="str">
@@ -5161,7 +5168,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5302,7 +5309,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5437,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5572,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5842,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5970,7 +5977,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6098,7 +6105,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6226,7 +6233,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6354,7 +6361,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6606,7 +6613,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6862,7 +6869,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7118,7 +7125,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7374,7 +7381,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7502,7 +7509,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7630,7 +7637,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7758,7 +7765,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7886,7 +7893,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8014,7 +8021,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8142,7 +8149,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8270,7 +8277,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8398,7 +8405,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8526,7 +8533,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8654,7 +8661,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8782,7 +8789,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8910,7 +8917,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9038,7 +9045,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9166,7 +9173,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9294,7 +9301,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9422,7 +9429,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9677,7 +9684,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9933,7 +9940,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10061,7 +10068,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10189,7 +10196,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10313,7 +10320,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10441,7 +10448,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10569,7 +10576,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10693,7 +10700,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10821,7 +10828,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10949,7 +10956,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11077,7 +11084,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11205,7 +11212,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11333,7 +11340,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11461,7 +11468,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11589,7 +11596,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11845,7 +11852,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11973,7 +11980,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12101,7 +12108,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12229,7 +12236,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12357,7 +12364,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12485,7 +12492,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12613,7 +12620,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12741,7 +12748,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12869,7 +12876,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12997,7 +13004,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13125,7 +13132,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13253,7 +13260,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13381,7 +13388,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13509,7 +13516,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13637,7 +13644,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13765,7 +13772,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13893,7 +13900,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14021,7 +14028,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14149,7 +14156,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14277,7 +14284,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14405,7 +14412,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14533,7 +14540,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14661,7 +14668,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14789,7 +14796,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14917,7 +14924,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15045,7 +15052,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15173,7 +15180,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15301,7 +15308,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15429,7 +15436,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15557,7 +15564,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15685,7 +15692,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15813,7 +15820,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15941,7 +15948,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -16069,7 +16076,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -16197,7 +16204,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -16325,7 +16332,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -16453,7 +16460,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -16581,7 +16588,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16709,7 +16716,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16837,7 +16844,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16965,7 +16972,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17093,7 +17100,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17221,7 +17228,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17349,7 +17356,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17477,7 +17484,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17605,7 +17612,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17733,7 +17740,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17861,7 +17868,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17989,7 +17996,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -18117,7 +18124,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -18245,7 +18252,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -18373,7 +18380,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -18501,7 +18508,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -18629,7 +18636,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -18757,7 +18764,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -18885,7 +18892,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19013,7 +19020,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19141,7 +19148,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19269,7 +19276,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19397,7 +19404,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19525,7 +19532,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19653,7 +19660,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19781,7 +19788,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19909,7 +19916,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -20037,7 +20044,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -20165,7 +20172,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -20293,7 +20300,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -20421,7 +20428,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -20549,7 +20556,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20677,7 +20684,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -20805,7 +20812,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -20933,7 +20940,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -21061,7 +21068,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -21189,7 +21196,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -21317,7 +21324,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -21445,7 +21452,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21573,7 +21580,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21701,7 +21708,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21825,7 +21832,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21953,7 +21960,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22081,7 +22088,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22209,7 +22216,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22337,7 +22344,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22465,7 +22472,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22593,7 +22600,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22721,7 +22728,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22849,7 +22856,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22977,7 +22984,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -23105,7 +23112,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -23233,7 +23240,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -23360,7 +23367,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -23488,7 +23495,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -23616,7 +23623,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -23744,7 +23751,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -23872,7 +23879,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -24000,7 +24007,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -24124,7 +24131,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -24252,7 +24259,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -24380,7 +24387,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -24508,7 +24515,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -24636,7 +24643,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -24764,7 +24771,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -24892,7 +24899,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -25020,7 +25027,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -25148,7 +25155,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -25266,7 +25273,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="F162" s="14"/>
       <c r="L162">
         <f>SUM(L2:L161)</f>
@@ -25309,7 +25316,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AN163" s="16" t="s">
         <v>970</v>
       </c>
@@ -25421,12 +25428,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1335</v>
       </c>
@@ -25434,7 +25441,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1242</v>
       </c>
@@ -25442,7 +25449,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1242</v>
       </c>
@@ -25450,7 +25457,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1245</v>
       </c>
@@ -25458,7 +25465,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1246</v>
       </c>
@@ -25466,7 +25473,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1248</v>
       </c>
@@ -25474,7 +25481,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1250</v>
       </c>
@@ -25482,7 +25489,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1252</v>
       </c>
@@ -25490,7 +25497,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1254</v>
       </c>
@@ -25498,7 +25505,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1256</v>
       </c>
@@ -25506,7 +25513,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1257</v>
       </c>
@@ -25514,7 +25521,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1259</v>
       </c>
@@ -25522,7 +25529,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1261</v>
       </c>
@@ -25530,7 +25537,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1262</v>
       </c>
@@ -25538,7 +25545,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1264</v>
       </c>
@@ -25546,7 +25553,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1265</v>
       </c>
@@ -25554,7 +25561,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1267</v>
       </c>
@@ -25562,7 +25569,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1269</v>
       </c>
@@ -25570,7 +25577,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1271</v>
       </c>
@@ -25578,7 +25585,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1272</v>
       </c>
@@ -25586,7 +25593,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1274</v>
       </c>
@@ -25594,7 +25601,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1276</v>
       </c>
@@ -25602,7 +25609,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1278</v>
       </c>
@@ -25610,7 +25617,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1280</v>
       </c>
@@ -25618,7 +25625,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1282</v>
       </c>
@@ -25626,7 +25633,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1284</v>
       </c>
@@ -25634,7 +25641,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1284</v>
       </c>
@@ -25642,7 +25649,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1285</v>
       </c>
@@ -25650,7 +25657,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1287</v>
       </c>
@@ -25658,7 +25665,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1288</v>
       </c>
@@ -25666,7 +25673,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1290</v>
       </c>
@@ -25674,7 +25681,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1292</v>
       </c>
@@ -25682,7 +25689,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1294</v>
       </c>
@@ -25690,7 +25697,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1295</v>
       </c>
@@ -25698,7 +25705,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1297</v>
       </c>
@@ -25706,7 +25713,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1299</v>
       </c>
@@ -25714,7 +25721,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1003</v>
       </c>
@@ -25722,7 +25729,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1003</v>
       </c>
@@ -25730,7 +25737,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1303</v>
       </c>
@@ -25738,7 +25745,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1305</v>
       </c>
@@ -25746,7 +25753,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1305</v>
       </c>
@@ -25754,7 +25761,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1308</v>
       </c>
@@ -25762,7 +25769,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1308</v>
       </c>
@@ -25770,7 +25777,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1311</v>
       </c>
@@ -25778,7 +25785,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1312</v>
       </c>
@@ -25786,7 +25793,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1314</v>
       </c>
@@ -25794,7 +25801,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1316</v>
       </c>
@@ -25802,7 +25809,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1318</v>
       </c>
@@ -25810,7 +25817,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1319</v>
       </c>
@@ -25818,7 +25825,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1321</v>
       </c>
@@ -25826,7 +25833,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1323</v>
       </c>
@@ -25834,7 +25841,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1324</v>
       </c>
@@ -25842,7 +25849,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1326</v>
       </c>
@@ -25850,7 +25857,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1328</v>
       </c>
@@ -25858,7 +25865,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1329</v>
       </c>
@@ -25866,7 +25873,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1331</v>
       </c>
@@ -25874,7 +25881,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1333</v>
       </c>
@@ -25895,12 +25902,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:155" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="15" t="s">
         <v>168</v>
@@ -26365,7 +26372,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>1183</v>
       </c>
@@ -26832,7 +26839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>890</v>
       </c>
@@ -27299,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>976</v>
       </c>
@@ -27766,7 +27773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>891</v>
       </c>
@@ -28233,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>877</v>
       </c>
@@ -28700,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>972</v>
       </c>
@@ -29167,7 +29174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>896</v>
       </c>
@@ -29634,7 +29641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>893</v>
       </c>
@@ -30101,7 +30108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>1199</v>
       </c>
@@ -30568,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>1215</v>
       </c>
@@ -31035,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1223</v>
       </c>
@@ -31502,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>914</v>
       </c>
@@ -31969,7 +31976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>925</v>
       </c>
@@ -32436,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>949</v>
       </c>
@@ -32903,7 +32910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>926</v>
       </c>
@@ -33370,7 +33377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>1115</v>
       </c>
@@ -33837,7 +33844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>1143</v>
       </c>
@@ -34304,7 +34311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>1147</v>
       </c>
@@ -34771,7 +34778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>1148</v>
       </c>
@@ -35238,7 +35245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1149</v>
       </c>
@@ -35705,7 +35712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>951</v>
       </c>
@@ -36172,7 +36179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>1084</v>
       </c>
@@ -36639,7 +36646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>884</v>
       </c>
@@ -37106,7 +37113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>881</v>
       </c>
@@ -37573,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>1198</v>
       </c>
@@ -38040,7 +38047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>941</v>
       </c>
@@ -38507,7 +38514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>909</v>
       </c>
@@ -38974,7 +38981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>957</v>
       </c>
@@ -39441,7 +39448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>930</v>
       </c>
@@ -39908,7 +39915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>935</v>
       </c>
@@ -40375,7 +40382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>869</v>
       </c>
@@ -40842,7 +40849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>874</v>
       </c>
@@ -41309,7 +41316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>911</v>
       </c>
@@ -41776,7 +41783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>880</v>
       </c>
@@ -42243,7 +42250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>903</v>
       </c>
@@ -42710,7 +42717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>1211</v>
       </c>
@@ -43177,7 +43184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>1213</v>
       </c>
@@ -43644,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>1216</v>
       </c>
@@ -44111,7 +44118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>902</v>
       </c>
@@ -44578,7 +44585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>974</v>
       </c>
@@ -45045,7 +45052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>956</v>
       </c>
@@ -45512,7 +45519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>973</v>
       </c>
@@ -45979,7 +45986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>895</v>
       </c>
@@ -46446,7 +46453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>921</v>
       </c>
@@ -46913,7 +46920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>929</v>
       </c>
@@ -47380,7 +47387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>871</v>
       </c>
@@ -47847,7 +47854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>927</v>
       </c>
@@ -48314,7 +48321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>897</v>
       </c>
@@ -48781,7 +48788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>960</v>
       </c>
@@ -49248,7 +49255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>892</v>
       </c>
@@ -49715,7 +49722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>1094</v>
       </c>
@@ -50182,7 +50189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>887</v>
       </c>
@@ -50649,7 +50656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>923</v>
       </c>
@@ -51116,7 +51123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>955</v>
       </c>
@@ -51583,7 +51590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>1185</v>
       </c>
@@ -52050,7 +52057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>889</v>
       </c>
@@ -52517,7 +52524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>931</v>
       </c>
@@ -52984,7 +52991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>979</v>
       </c>
@@ -53451,7 +53458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>1146</v>
       </c>
@@ -53918,7 +53925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>964</v>
       </c>
@@ -54385,7 +54392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>1151</v>
       </c>
@@ -54852,7 +54859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>919</v>
       </c>
@@ -55319,7 +55326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>1081</v>
       </c>
@@ -55786,7 +55793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>985</v>
       </c>
@@ -56253,7 +56260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>932</v>
       </c>
@@ -56720,7 +56727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>1085</v>
       </c>
@@ -57187,7 +57194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>981</v>
       </c>
@@ -57654,7 +57661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>920</v>
       </c>
@@ -58121,7 +58128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>987</v>
       </c>
@@ -58588,7 +58595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>876</v>
       </c>
@@ -59055,7 +59062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>918</v>
       </c>
@@ -59522,7 +59529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>1201</v>
       </c>
@@ -59989,7 +59996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>936</v>
       </c>
@@ -60456,7 +60463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>934</v>
       </c>
@@ -60923,7 +60930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>1099</v>
       </c>
@@ -61390,7 +61397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>952</v>
       </c>
@@ -61857,7 +61864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>1205</v>
       </c>
@@ -62324,7 +62331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>946</v>
       </c>
@@ -62791,7 +62798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>873</v>
       </c>
@@ -63258,7 +63265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>916</v>
       </c>
@@ -63725,7 +63732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>898</v>
       </c>
@@ -64192,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>882</v>
       </c>
@@ -64659,7 +64666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>978</v>
       </c>
@@ -65126,7 +65133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>917</v>
       </c>
@@ -65593,7 +65600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>1214</v>
       </c>
@@ -66060,7 +66067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>990</v>
       </c>
@@ -66527,7 +66534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A88" s="24" t="s">
         <v>1218</v>
       </c>
@@ -66994,7 +67001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A89" s="24" t="s">
         <v>888</v>
       </c>
@@ -67461,7 +67468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>924</v>
       </c>
@@ -67928,7 +67935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>879</v>
       </c>
@@ -68395,7 +68402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>975</v>
       </c>
@@ -68862,7 +68869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>1229</v>
       </c>
@@ -69329,7 +69336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
         <v>953</v>
       </c>
@@ -69796,7 +69803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
         <v>986</v>
       </c>
@@ -70263,7 +70270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>928</v>
       </c>
@@ -70730,7 +70737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
         <v>868</v>
       </c>
@@ -71197,7 +71204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
         <v>866</v>
       </c>
@@ -71664,7 +71671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A99" s="24" t="s">
         <v>1092</v>
       </c>
@@ -72131,7 +72138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A100" s="24" t="s">
         <v>1231</v>
       </c>
@@ -72598,7 +72605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A101" s="24" t="s">
         <v>950</v>
       </c>
@@ -73065,7 +73072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>1232</v>
       </c>
@@ -73532,7 +73539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>933</v>
       </c>
@@ -73999,7 +74006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>883</v>
       </c>
@@ -74466,7 +74473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>872</v>
       </c>
@@ -74933,7 +74940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>945</v>
       </c>
@@ -75400,7 +75407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
         <v>959</v>
       </c>
@@ -75867,7 +75874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A108" s="24" t="s">
         <v>948</v>
       </c>
@@ -76334,7 +76341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A109" s="24" t="s">
         <v>1235</v>
       </c>
@@ -76801,7 +76808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
         <v>943</v>
       </c>
@@ -77268,7 +77275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A111" s="24" t="s">
         <v>962</v>
       </c>
@@ -77735,7 +77742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A112" s="24" t="s">
         <v>963</v>
       </c>
@@ -78202,7 +78209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A113" s="24" t="s">
         <v>1073</v>
       </c>
@@ -78669,7 +78676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A114" s="24" t="s">
         <v>1074</v>
       </c>
@@ -79136,7 +79143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A115" s="24" t="s">
         <v>1072</v>
       </c>
@@ -79603,7 +79610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
         <v>1071</v>
       </c>
@@ -80070,7 +80077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A117" s="24" t="s">
         <v>1069</v>
       </c>
@@ -80537,7 +80544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A118" s="24" t="s">
         <v>958</v>
       </c>
@@ -81004,7 +81011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>900</v>
       </c>
@@ -81471,7 +81478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A120" s="24" t="s">
         <v>942</v>
       </c>
@@ -81938,7 +81945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A121" s="24" t="s">
         <v>961</v>
       </c>
@@ -82405,7 +82412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A122" s="24" t="s">
         <v>1080</v>
       </c>
@@ -82872,7 +82879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A123" s="24" t="s">
         <v>1186</v>
       </c>
@@ -83339,7 +83346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A124" s="24" t="s">
         <v>1118</v>
       </c>
@@ -83806,7 +83813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A125" s="24" t="s">
         <v>944</v>
       </c>
@@ -84273,7 +84280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>1120</v>
       </c>
@@ -84740,7 +84747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A127" s="24" t="s">
         <v>870</v>
       </c>
@@ -85207,7 +85214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A128" s="24" t="s">
         <v>954</v>
       </c>
@@ -85674,7 +85681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>865</v>
       </c>
@@ -86141,7 +86148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A130" s="24" t="s">
         <v>1132</v>
       </c>
@@ -86608,7 +86615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A131" s="24" t="s">
         <v>940</v>
       </c>
@@ -87075,7 +87082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A132" s="24" t="s">
         <v>1187</v>
       </c>
@@ -87542,7 +87549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A133" s="24" t="s">
         <v>937</v>
       </c>
@@ -88009,7 +88016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>939</v>
       </c>
@@ -88476,7 +88483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A135" s="24" t="s">
         <v>1189</v>
       </c>
@@ -88943,7 +88950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A136" s="24" t="s">
         <v>1142</v>
       </c>
@@ -89410,7 +89417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A137" s="24" t="s">
         <v>1190</v>
       </c>
@@ -89877,7 +89884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
         <v>1145</v>
       </c>
@@ -90344,7 +90351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A139" s="24" t="s">
         <v>938</v>
       </c>
@@ -90811,7 +90818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A140" s="24" t="s">
         <v>988</v>
       </c>
@@ -91278,7 +91285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>1191</v>
       </c>
@@ -91745,7 +91752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A142" s="24" t="s">
         <v>1192</v>
       </c>
@@ -92212,7 +92219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A143" s="24" t="s">
         <v>878</v>
       </c>
@@ -92679,7 +92686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A144" s="24" t="s">
         <v>1152</v>
       </c>
@@ -93146,7 +93153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A145" s="24" t="s">
         <v>875</v>
       </c>
@@ -93613,7 +93620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A146" s="24" t="s">
         <v>1193</v>
       </c>
@@ -94080,7 +94087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A147" s="24" t="s">
         <v>922</v>
       </c>
@@ -94547,7 +94554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A148" s="24" t="s">
         <v>1082</v>
       </c>
@@ -95014,7 +95021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A149" s="24" t="s">
         <v>1194</v>
       </c>
@@ -95481,7 +95488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A150" s="24" t="s">
         <v>983</v>
       </c>
@@ -95948,7 +95955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A151" s="24" t="s">
         <v>1170</v>
       </c>
@@ -96415,7 +96422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="s">
         <v>1083</v>
       </c>
@@ -96882,7 +96889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="s">
         <v>1195</v>
       </c>
@@ -97349,7 +97356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="s">
         <v>1196</v>
       </c>
@@ -97816,7 +97823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:155" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="s">
         <v>1086</v>
       </c>
@@ -98304,22 +98311,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AF6C71-842D-44D4-9939-13BBCE1E1D18}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88:G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1339</v>
       </c>
@@ -98339,7 +98346,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
@@ -98374,7 +98381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -98408,7 +98415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>64</v>
       </c>
@@ -98442,7 +98449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -98476,7 +98483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -98507,7 +98514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>76</v>
       </c>
@@ -98541,7 +98548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -98575,7 +98582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -98599,7 +98606,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>100</v>
       </c>
@@ -98626,7 +98633,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -98653,7 +98660,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>135</v>
       </c>
@@ -98680,7 +98687,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -98707,7 +98714,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -98731,7 +98738,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>208</v>
       </c>
@@ -98758,7 +98765,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -98784,7 +98791,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>305</v>
       </c>
@@ -98810,7 +98817,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>305</v>
       </c>
@@ -98833,7 +98840,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -98859,7 +98866,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>316</v>
       </c>
@@ -98886,7 +98893,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -98913,7 +98920,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>343</v>
       </c>
@@ -98939,7 +98946,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>373</v>
       </c>
@@ -98965,7 +98972,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -98988,7 +98995,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>391</v>
       </c>
@@ -99014,7 +99021,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -99040,7 +99047,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>403</v>
       </c>
@@ -99063,7 +99070,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>409</v>
       </c>
@@ -99090,7 +99097,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>409</v>
       </c>
@@ -99113,7 +99120,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>415</v>
       </c>
@@ -99140,7 +99147,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>491</v>
       </c>
@@ -99167,7 +99174,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>623</v>
       </c>
@@ -99194,7 +99201,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>623</v>
       </c>
@@ -99218,7 +99225,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>634</v>
       </c>
@@ -99245,7 +99252,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>692</v>
       </c>
@@ -99272,7 +99279,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>692</v>
       </c>
@@ -99296,7 +99303,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>708</v>
       </c>
@@ -99322,7 +99329,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>714</v>
       </c>
@@ -99349,7 +99356,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>714</v>
       </c>
@@ -99372,7 +99379,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -99395,7 +99402,7 @@
       </c>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>726</v>
       </c>
@@ -99421,7 +99428,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>726</v>
       </c>
@@ -99444,7 +99451,7 @@
       </c>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>743</v>
       </c>
@@ -99471,7 +99478,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>814</v>
       </c>
@@ -99498,7 +99505,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>843</v>
       </c>
@@ -99525,7 +99532,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>843</v>
       </c>
@@ -99548,7 +99555,7 @@
       </c>
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>843</v>
       </c>
@@ -99572,7 +99579,7 @@
       </c>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>843</v>
       </c>
@@ -99595,7 +99602,7 @@
       </c>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>843</v>
       </c>
@@ -99618,7 +99625,7 @@
       </c>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
         <v>861</v>
       </c>
@@ -99644,7 +99651,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
@@ -99671,7 +99678,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>1048</v>
       </c>
@@ -99698,7 +99705,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -99725,7 +99732,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>145</v>
       </c>
@@ -99752,7 +99759,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -99779,7 +99786,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>168</v>
       </c>
@@ -99806,7 +99813,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -99832,7 +99839,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>190</v>
       </c>
@@ -99858,7 +99865,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -99885,7 +99892,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>250</v>
       </c>
@@ -99912,7 +99919,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>290</v>
       </c>
@@ -99939,7 +99946,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="27" t="s">
         <v>367</v>
       </c>
@@ -99966,7 +99973,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>397</v>
       </c>
@@ -99993,7 +100000,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>451</v>
       </c>
@@ -100020,7 +100027,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>451</v>
       </c>
@@ -100043,7 +100050,7 @@
       </c>
       <c r="G65" s="30"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>474</v>
       </c>
@@ -100069,7 +100076,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>474</v>
       </c>
@@ -100093,7 +100100,7 @@
       </c>
       <c r="G67" s="30"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>474</v>
       </c>
@@ -100116,7 +100123,7 @@
       </c>
       <c r="G68" s="30"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>480</v>
       </c>
@@ -100142,7 +100149,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>480</v>
       </c>
@@ -100165,7 +100172,7 @@
       </c>
       <c r="G70" s="30"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>486</v>
       </c>
@@ -100191,7 +100198,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>486</v>
       </c>
@@ -100214,7 +100221,7 @@
       </c>
       <c r="G72" s="30"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="27" t="s">
         <v>496</v>
       </c>
@@ -100240,7 +100247,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>514</v>
       </c>
@@ -100267,7 +100274,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>514</v>
       </c>
@@ -100290,7 +100297,7 @@
       </c>
       <c r="G75" s="30"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>520</v>
       </c>
@@ -100316,7 +100323,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>520</v>
       </c>
@@ -100339,7 +100346,7 @@
       </c>
       <c r="G77" s="30"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>526</v>
       </c>
@@ -100365,7 +100372,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -100388,7 +100395,7 @@
       </c>
       <c r="G79" s="30"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="27" t="s">
         <v>531</v>
       </c>
@@ -100414,7 +100421,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>531</v>
       </c>
@@ -100437,7 +100444,7 @@
       </c>
       <c r="G81" s="30"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>559</v>
       </c>
@@ -100463,7 +100470,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
         <v>565</v>
       </c>
@@ -100489,7 +100496,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>570</v>
       </c>
@@ -100515,7 +100522,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>599</v>
       </c>
@@ -100542,7 +100549,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>599</v>
       </c>
@@ -100566,7 +100573,7 @@
       </c>
       <c r="G86" s="30"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
         <v>599</v>
       </c>
@@ -100590,7 +100597,7 @@
       </c>
       <c r="G87" s="30"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>656</v>
       </c>
@@ -100617,7 +100624,7 @@
         <v>Antioxidants</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>656</v>
       </c>
@@ -100641,7 +100648,7 @@
       </c>
       <c r="G89" s="30"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>656</v>
       </c>
@@ -100664,7 +100671,7 @@
       </c>
       <c r="G90" s="30"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>656</v>
       </c>
@@ -100687,7 +100694,7 @@
       </c>
       <c r="G91" s="30"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>656</v>
       </c>
@@ -100710,7 +100717,7 @@
       </c>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>656</v>
       </c>
@@ -100734,7 +100741,7 @@
       </c>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>656</v>
       </c>
@@ -100757,7 +100764,7 @@
       </c>
       <c r="G94" s="30"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="27" t="s">
         <v>674</v>
       </c>
@@ -100784,7 +100791,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>674</v>
       </c>
@@ -100808,7 +100815,7 @@
       </c>
       <c r="G96" s="30"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>703</v>
       </c>
@@ -100835,7 +100842,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>703</v>
       </c>
@@ -100859,7 +100866,7 @@
       </c>
       <c r="G98" s="30"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>703</v>
       </c>
@@ -100883,7 +100890,7 @@
       </c>
       <c r="G99" s="30"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>832</v>
       </c>
@@ -100910,7 +100917,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>993</v>
       </c>
@@ -100937,7 +100944,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>993</v>
       </c>
@@ -100961,7 +100968,7 @@
       </c>
       <c r="G102" s="30"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="27" t="s">
         <v>1027</v>
       </c>
@@ -100988,7 +100995,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>1027</v>
       </c>
@@ -101012,7 +101019,7 @@
       </c>
       <c r="G104" s="30"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F105">
         <f>SUM(F2:F104)</f>
         <v>15</v>
@@ -101050,4 +101057,2947 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A19DD7-BF20-4521-B222-2B68D13A7EAD}">
+  <dimension ref="A1:M161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
+        <v>2.4869068190123498</v>
+      </c>
+      <c r="C2">
+        <f>VLOOKUP(A2,$I$2:$L$161,4,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2">
+        <v>133.03752899999998</v>
+      </c>
+      <c r="K2" s="14">
+        <v>6.7198431442471902</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4.26211395950126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3">
+        <v>0.59661234239328997</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" si="0">VLOOKUP(A3,$I$2:$L$161,4,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3">
+        <v>147.053179</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2.5206879377941398</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3.0496712507941699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4">
+        <v>0.70385173937551504</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3">
+        <v>181.07391399999997</v>
+      </c>
+      <c r="K4" s="14">
+        <v>10.4759155852147</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>8.8223646351729794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5">
+        <v>0.87763017871676996</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3">
+        <v>165.07899899999998</v>
+      </c>
+      <c r="K5" s="14">
+        <v>11.731977228623</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>8.7434374745500207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6">
+        <v>1.0600658606703099</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3">
+        <v>204.08989799999998</v>
+      </c>
+      <c r="K6" s="14">
+        <v>12.0725880441363</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>10.816873987075001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B7">
+        <v>-0.42381860230082002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3">
+        <v>174.11169599999999</v>
+      </c>
+      <c r="K7" s="14">
+        <v>11.2673078153235</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>10.2060827473772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8">
+        <v>1.8491209215957201</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="3">
+        <v>155.06949699999998</v>
+      </c>
+      <c r="K8" s="14">
+        <v>10.5961595422953</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>10.190728200956199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9">
+        <v>1.8566248258204601</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3">
+        <v>146.105548</v>
+      </c>
+      <c r="K9" s="14">
+        <v>9.8483488657705696</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>6.3879128904232196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10">
+        <v>0.98198064155279996</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="3">
+        <v>146.06916299999997</v>
+      </c>
+      <c r="K10" s="14">
+        <v>5.4151844206145903</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>4.5755396287649797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11">
+        <v>0.656011801380608</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3">
+        <v>132.05351299999998</v>
+      </c>
+      <c r="K11" s="14">
+        <v>8.7522535228217002</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>6.6633511009513597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12">
+        <v>2.7577088085295398</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="3">
+        <v>105.042614</v>
+      </c>
+      <c r="K12" s="14">
+        <v>8.3856630820588407</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>8.0550275106298201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13">
+        <v>-0.56681343143393803</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="3">
+        <v>119.05826399999999</v>
+      </c>
+      <c r="K13" s="14">
+        <v>5.5615410266329599</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>2.7832376079201602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14">
+        <v>-0.44154390270331001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="3">
+        <v>121.01977100000001</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B15">
+        <v>0.79121766887186895</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="3">
+        <v>89.047698999999994</v>
+      </c>
+      <c r="K15" s="14">
+        <v>6.7466447221692203</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>4.7938242566399101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>656</v>
+      </c>
+      <c r="B16">
+        <v>1.54869561861593</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="3">
+        <v>75.032049000000001</v>
+      </c>
+      <c r="K16" s="14">
+        <v>8.9717194348387093</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>4.2871096453832198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B17">
+        <v>2.9208355934411099</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>131.09464899999998</v>
+      </c>
+      <c r="K17" s="14">
+        <v>8.7138708429194391</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>6.5851372204700098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>784</v>
+      </c>
+      <c r="B18">
+        <v>2.1361205670476902</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="3">
+        <v>131.09464899999998</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7.66388079045291</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>6.1925905818360896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>832</v>
+      </c>
+      <c r="B19">
+        <v>2.0977602726047602</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="3">
+        <v>149.05107099999998</v>
+      </c>
+      <c r="K19" s="14">
+        <v>8.4809100937494808</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>11.298813884621101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B20">
+        <v>0.96349069600191495</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="3">
+        <v>115.063349</v>
+      </c>
+      <c r="K20" s="14">
+        <v>10.5912400023073</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>8.5970654749095505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B21">
+        <v>-0.50272415093994605</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="3">
+        <v>117.078999</v>
+      </c>
+      <c r="K21" s="14">
+        <v>3.8151775602386402</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>4.6934419849712699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="3">
+        <v>131.05826399999998</v>
+      </c>
+      <c r="K22" s="14">
+        <v>11.7362224679243</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>5.2316935090946401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="3">
+        <v>119.05826399999999</v>
+      </c>
+      <c r="K23" s="14">
+        <v>9.3952846525802602</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>5.50400419043961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J24" s="3">
+        <v>130.06301499999998</v>
+      </c>
+      <c r="K24" s="14">
+        <v>2.41263631841659</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>6.7273453591330803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="3">
+        <v>130.06301499999998</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1.2347987884834</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>8.3501735395806005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="3">
+        <v>190.04775999999998</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>11.9062377859095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="3">
+        <v>180.04227999999998</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>9.3906041629502592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="3">
+        <v>254.01917799999998</v>
+      </c>
+      <c r="K28" s="14">
+        <v>7.9397595449139704</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>4.9505005329031002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="3">
+        <v>226.04775999999998</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>2.4869068190123498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="3">
+        <v>137.04769899999999</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>10.4583961710804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="3">
+        <v>117.057869</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>9.8861667896533501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="3">
+        <v>226.04775999999998</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>8.1440353284684406</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="3">
+        <v>172.037195</v>
+      </c>
+      <c r="K33" s="14">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>9.3390752565361304</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J34" s="3">
+        <v>116.047365</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0.96923386289504398</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>1.8491209215957201</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J35" s="3">
+        <v>103.063349</v>
+      </c>
+      <c r="K35" s="14">
+        <v>11.2039310153403</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>0.62306093351130898</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="3">
+        <v>145.157917</v>
+      </c>
+      <c r="K36" s="14">
+        <v>9.74295172709963</v>
+      </c>
+      <c r="L36">
+        <v>35</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="3">
+        <v>102.03171500000001</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0.59661234239328997</v>
+      </c>
+      <c r="L37">
+        <v>36</v>
+      </c>
+      <c r="M37">
+        <v>-0.32580553789276001</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="3">
+        <v>88.100068000000007</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1.0600658606703099</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="3">
+        <v>164.04736499999999</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-2.6929344911883799E-2</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>5.1122554583698703</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="3">
+        <v>141.09023199999999</v>
+      </c>
+      <c r="K40" s="14">
+        <v>12.091068241833099</v>
+      </c>
+      <c r="L40">
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <v>10.372493326879599</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" s="3">
+        <v>132.08989799999998</v>
+      </c>
+      <c r="K41" s="14">
+        <v>9.4954253988677593</v>
+      </c>
+      <c r="L41">
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <v>5.23624272995698</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J42" s="3">
+        <v>190.09537799999998</v>
+      </c>
+      <c r="K42" s="14">
+        <v>9.7100134165094296</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>10.4813288489839</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J43" s="3">
+        <v>174.05284499999999</v>
+      </c>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>42</v>
+      </c>
+      <c r="M43">
+        <v>9.2923049080441</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J44" s="3">
+        <v>140.982732</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>43</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" s="3">
+        <v>175.09571199999999</v>
+      </c>
+      <c r="K45" s="14">
+        <v>11.3560299529455</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>9.2956137221194304</v>
+      </c>
+    </row>
+    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" s="3">
+        <v>189.06374399999999</v>
+      </c>
+      <c r="K46" s="14">
+        <v>9.6576560930094004</v>
+      </c>
+      <c r="L46">
+        <v>45</v>
+      </c>
+      <c r="M46">
+        <v>9.7240749164311104</v>
+      </c>
+    </row>
+    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J47" s="3">
+        <v>290.12265600000001</v>
+      </c>
+      <c r="K47" s="14">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J48" s="3">
+        <v>427.02944099999996</v>
+      </c>
+      <c r="K48" s="14">
+        <v>11.9084854508659</v>
+      </c>
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>8.7576024793999494</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" s="3">
+        <v>443.02435600000001</v>
+      </c>
+      <c r="K49" s="14">
+        <v>10.066881685183001</v>
+      </c>
+      <c r="L49">
+        <v>48</v>
+      </c>
+      <c r="M49">
+        <v>7.5267034269741302</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J50" s="3">
+        <v>404.00222400000001</v>
+      </c>
+      <c r="K50" s="14">
+        <v>3.06139228085364</v>
+      </c>
+      <c r="L50">
+        <v>49</v>
+      </c>
+      <c r="M50">
+        <v>8.4612446645512804</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" s="3">
+        <v>345.04745800000001</v>
+      </c>
+      <c r="K51" s="14">
+        <v>10.0330499584436</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>11.1730907492976</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>329.05254300000001</v>
+      </c>
+      <c r="K52" s="14">
+        <v>12.269193911872399</v>
+      </c>
+      <c r="L52">
+        <v>51</v>
+      </c>
+      <c r="M52">
+        <v>10.9728322269</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J53" s="3">
+        <v>347.063108</v>
+      </c>
+      <c r="K53" s="14">
+        <v>10.802603477119501</v>
+      </c>
+      <c r="L53">
+        <v>52</v>
+      </c>
+      <c r="M53">
+        <v>7.5814333846684203</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J54" s="3">
+        <v>363.05802299999999</v>
+      </c>
+      <c r="K54" s="14">
+        <v>10.1981666991841</v>
+      </c>
+      <c r="L54">
+        <v>53</v>
+      </c>
+      <c r="M54">
+        <v>8.3416312298527906</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I55" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J55" s="3">
+        <v>324.03589099999999</v>
+      </c>
+      <c r="K55" s="14">
+        <v>11.093104370359599</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>9.7789711649370599</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I56" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J56" s="3">
+        <v>348.047124</v>
+      </c>
+      <c r="K56" s="14">
+        <v>11.2593421760109</v>
+      </c>
+      <c r="L56">
+        <v>55</v>
+      </c>
+      <c r="M56">
+        <v>10.1770988936669</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I57" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="J57" s="3">
+        <v>506.99577399999998</v>
+      </c>
+      <c r="K57" s="14">
+        <v>10.255018706856299</v>
+      </c>
+      <c r="L57">
+        <v>56</v>
+      </c>
+      <c r="M57">
+        <v>10.426810597140699</v>
+      </c>
+    </row>
+    <row r="58" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I58" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" s="3">
+        <v>522.99068899999997</v>
+      </c>
+      <c r="K58" s="14">
+        <v>11.374012371571</v>
+      </c>
+      <c r="L58">
+        <v>57</v>
+      </c>
+      <c r="M58">
+        <v>10.3352387636132</v>
+      </c>
+    </row>
+    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J59" s="3">
+        <v>483.96855699999998</v>
+      </c>
+      <c r="K59" s="14">
+        <v>8.5585094822519299</v>
+      </c>
+      <c r="L59">
+        <v>58</v>
+      </c>
+      <c r="M59">
+        <v>10.147591429992699</v>
+      </c>
+    </row>
+    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I60" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J60" s="3">
+        <v>323.051875</v>
+      </c>
+      <c r="K60" s="14">
+        <v>11.2233152021637</v>
+      </c>
+      <c r="L60">
+        <v>59</v>
+      </c>
+      <c r="M60">
+        <v>9.0919736120686103</v>
+      </c>
+    </row>
+    <row r="61" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I61" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J61" s="3">
+        <v>403.01820799999996</v>
+      </c>
+      <c r="K61" s="14">
+        <v>11.283486637000401</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61">
+        <v>9.4803897274918008</v>
+      </c>
+    </row>
+    <row r="62" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" s="3">
+        <v>482.98454099999998</v>
+      </c>
+      <c r="K62" s="14">
+        <v>8.8871274169752805</v>
+      </c>
+      <c r="L62">
+        <v>61</v>
+      </c>
+      <c r="M62">
+        <v>8.5239146741440805</v>
+      </c>
+    </row>
+    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I63" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="J63" s="3">
+        <v>135.05451499999998</v>
+      </c>
+      <c r="K63" s="14">
+        <v>11.9598402066582</v>
+      </c>
+      <c r="L63">
+        <v>62</v>
+      </c>
+      <c r="M63">
+        <v>10.486851939394899</v>
+      </c>
+    </row>
+    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I64" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J64" s="3">
+        <v>151.04942999999997</v>
+      </c>
+      <c r="K64" s="14">
+        <v>8.5547420818489908</v>
+      </c>
+      <c r="L64">
+        <v>63</v>
+      </c>
+      <c r="M64">
+        <v>8.7856788899646592</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I65" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J65" s="3">
+        <v>136.03853099999998</v>
+      </c>
+      <c r="K65" s="14">
+        <v>7.6338704860961499</v>
+      </c>
+      <c r="L65">
+        <v>64</v>
+      </c>
+      <c r="M65">
+        <v>5.9330177350812896</v>
+      </c>
+    </row>
+    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J66" s="3">
+        <v>152.033446</v>
+      </c>
+      <c r="K66" s="14">
+        <v>6.0135113532389699</v>
+      </c>
+      <c r="L66">
+        <v>65</v>
+      </c>
+      <c r="M66">
+        <v>10.954906647723</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J67" s="3">
+        <v>268.08079099999998</v>
+      </c>
+      <c r="K67" s="14">
+        <v>12.130518603913</v>
+      </c>
+      <c r="L67">
+        <v>66</v>
+      </c>
+      <c r="M67">
+        <v>9.9561142034536498</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J68" s="3">
+        <v>283.09168999999997</v>
+      </c>
+      <c r="K68" s="14">
+        <v>10.987805290691</v>
+      </c>
+      <c r="L68">
+        <v>67</v>
+      </c>
+      <c r="M68">
+        <v>9.3570425827893704</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J69" s="3">
+        <v>112.027298</v>
+      </c>
+      <c r="K69" s="14">
+        <v>1.8566248258204601</v>
+      </c>
+      <c r="L69">
+        <v>68</v>
+      </c>
+      <c r="M69">
+        <v>-0.41830693236305899</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J70" s="3">
+        <v>244.069558</v>
+      </c>
+      <c r="K70" s="14">
+        <v>8.4893602344842893</v>
+      </c>
+      <c r="L70">
+        <v>69</v>
+      </c>
+      <c r="M70">
+        <v>5.5532046272166298</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="3">
+        <v>243.08554199999998</v>
+      </c>
+      <c r="K71" s="14">
+        <v>10.9754483341829</v>
+      </c>
+      <c r="L71">
+        <v>70</v>
+      </c>
+      <c r="M71">
+        <v>10.347405892417299</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I72" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J72" s="3">
+        <v>111.043282</v>
+      </c>
+      <c r="K72" s="14">
+        <v>8.4549125057672097</v>
+      </c>
+      <c r="L72">
+        <v>71</v>
+      </c>
+      <c r="M72">
+        <v>7.5482291657829998</v>
+      </c>
+    </row>
+    <row r="73" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I73" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J73" s="3">
+        <v>156.01712799999999</v>
+      </c>
+      <c r="K73" s="14">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>72</v>
+      </c>
+      <c r="M73">
+        <v>3.7761810202462298</v>
+      </c>
+    </row>
+    <row r="74" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I74" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J74" s="3">
+        <v>158.03277799999998</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0.17788256604681599</v>
+      </c>
+      <c r="L74">
+        <v>73</v>
+      </c>
+      <c r="M74">
+        <v>8.4250423189428094</v>
+      </c>
+    </row>
+    <row r="75" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="J75" s="3">
+        <v>389.95184399999999</v>
+      </c>
+      <c r="K75" s="14">
+        <v>8.0080228171627503</v>
+      </c>
+      <c r="L75">
+        <v>74</v>
+      </c>
+      <c r="M75">
+        <v>7.12483187153427</v>
+      </c>
+    </row>
+    <row r="76" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J76" s="3">
+        <v>339.99607599999996</v>
+      </c>
+      <c r="K76" s="14">
+        <v>1.31537429424223</v>
+      </c>
+      <c r="L76">
+        <v>75</v>
+      </c>
+      <c r="M76">
+        <v>7.5264038035760299</v>
+      </c>
+    </row>
+    <row r="77" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="J77" s="3">
+        <v>169.99804799999998</v>
+      </c>
+      <c r="K77" s="14">
+        <v>8.9021508937607408</v>
+      </c>
+      <c r="L77">
+        <v>76</v>
+      </c>
+      <c r="M77">
+        <v>4.3454078665251501</v>
+      </c>
+    </row>
+    <row r="78" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J78" s="3">
+        <v>169.99804799999998</v>
+      </c>
+      <c r="K78" s="14">
+        <v>0.98198064155279996</v>
+      </c>
+      <c r="L78">
+        <v>77</v>
+      </c>
+      <c r="M78">
+        <v>-0.34521646571175002</v>
+      </c>
+    </row>
+    <row r="79" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I79" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J79" s="3">
+        <v>167.98239799999999</v>
+      </c>
+      <c r="K79" s="14">
+        <v>10.0546998116399</v>
+      </c>
+      <c r="L79">
+        <v>78</v>
+      </c>
+      <c r="M79">
+        <v>9.7789625064696999</v>
+      </c>
+    </row>
+    <row r="80" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I80" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J80" s="3">
+        <v>185.99296299999997</v>
+      </c>
+      <c r="K80" s="14">
+        <v>7.9407808461510898</v>
+      </c>
+      <c r="L80">
+        <v>79</v>
+      </c>
+      <c r="M80">
+        <v>5.4430234596681899</v>
+      </c>
+    </row>
+    <row r="81" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I81" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="J81" s="3">
+        <v>265.95929599999999</v>
+      </c>
+      <c r="K81" s="14">
+        <v>4.3084455387510001</v>
+      </c>
+      <c r="L81">
+        <v>80</v>
+      </c>
+      <c r="M81">
+        <v>6.9895419978248103</v>
+      </c>
+    </row>
+    <row r="82" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I82" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="J82" s="3">
+        <v>88.016064999999998</v>
+      </c>
+      <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>81</v>
+      </c>
+      <c r="M82">
+        <v>0.656011801380608</v>
+      </c>
+    </row>
+    <row r="83" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="J83" s="3">
+        <v>260.029743</v>
+      </c>
+      <c r="K83" s="14">
+        <v>0.59644360673345798</v>
+      </c>
+      <c r="L83">
+        <v>82</v>
+      </c>
+      <c r="M83">
+        <v>4.5630065657944101</v>
+      </c>
+    </row>
+    <row r="84" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="J84" s="3">
+        <v>260.029743</v>
+      </c>
+      <c r="K84" s="14">
+        <v>3.1083029339688899</v>
+      </c>
+      <c r="L84">
+        <v>83</v>
+      </c>
+      <c r="M84">
+        <v>3.6035243940378798</v>
+      </c>
+    </row>
+    <row r="85" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I85" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J85" s="3">
+        <v>260.029743</v>
+      </c>
+      <c r="K85" s="14">
+        <v>4.3629040145593496</v>
+      </c>
+      <c r="L85">
+        <v>84</v>
+      </c>
+      <c r="M85">
+        <v>3.23224785067656</v>
+      </c>
+    </row>
+    <row r="86" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I86" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J86" s="3">
+        <v>259.045727</v>
+      </c>
+      <c r="K86" s="14">
+        <v>4.7275055343002697</v>
+      </c>
+      <c r="L86">
+        <v>85</v>
+      </c>
+      <c r="M86">
+        <v>8.9829225865028306</v>
+      </c>
+    </row>
+    <row r="87" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="J87" s="3">
+        <v>221.08995899999999</v>
+      </c>
+      <c r="K87" s="14">
+        <v>11.414255907198999</v>
+      </c>
+      <c r="L87">
+        <v>86</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="J88" s="3">
+        <v>607.08159799999999</v>
+      </c>
+      <c r="K88" s="14">
+        <v>11.052206325279601</v>
+      </c>
+      <c r="L88">
+        <v>87</v>
+      </c>
+      <c r="M88">
+        <v>8.4191841688910198</v>
+      </c>
+    </row>
+    <row r="89" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I89" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="J89" s="3">
+        <v>200.008613</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>88</v>
+      </c>
+      <c r="M89">
+        <v>3.7245954135964601</v>
+      </c>
+    </row>
+    <row r="90" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I90" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="J90" s="3">
+        <v>230.01917799999998</v>
+      </c>
+      <c r="K90" s="14">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>89</v>
+      </c>
+      <c r="M90">
+        <v>4.3123794879544599</v>
+      </c>
+    </row>
+    <row r="91" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="J91" s="3">
+        <v>230.01917799999998</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>90</v>
+      </c>
+      <c r="M91">
+        <v>4.4720275891394001</v>
+      </c>
+    </row>
+    <row r="92" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="J92" s="3">
+        <v>230.01917799999998</v>
+      </c>
+      <c r="K92" s="14">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>91</v>
+      </c>
+      <c r="M92">
+        <v>4.33191052936865</v>
+      </c>
+    </row>
+    <row r="93" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I93" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J93" s="3">
+        <v>276.02465799999999</v>
+      </c>
+      <c r="K93" s="14">
+        <v>7.8116856194778199</v>
+      </c>
+      <c r="L93">
+        <v>92</v>
+      </c>
+      <c r="M93">
+        <v>8.0788919079629409</v>
+      </c>
+    </row>
+    <row r="94" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I94" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="J94" s="3">
+        <v>290.04030799999998</v>
+      </c>
+      <c r="K94" s="14">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>93</v>
+      </c>
+      <c r="M94">
+        <v>8.1553410552036603</v>
+      </c>
+    </row>
+    <row r="95" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I95" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J95" s="3">
+        <v>867.13128399999994</v>
+      </c>
+      <c r="K95" s="14">
+        <v>2.5603772791418602</v>
+      </c>
+      <c r="L95">
+        <v>94</v>
+      </c>
+      <c r="M95">
+        <v>2.7577088085295398</v>
+      </c>
+    </row>
+    <row r="96" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I96" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J96" s="3">
+        <v>809.12580400000002</v>
+      </c>
+      <c r="K96" s="14">
+        <v>7.9277454497452</v>
+      </c>
+      <c r="L96">
+        <v>95</v>
+      </c>
+      <c r="M96">
+        <v>7.1782933494002501</v>
+      </c>
+    </row>
+    <row r="97" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I97" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J97" s="3">
+        <v>192.02702499999998</v>
+      </c>
+      <c r="K97" s="14">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>96</v>
+      </c>
+      <c r="M97">
+        <v>-0.56681343143393803</v>
+      </c>
+    </row>
+    <row r="98" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I98" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="J98" s="3">
+        <v>192.02702499999998</v>
+      </c>
+      <c r="K98" s="14">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>97</v>
+      </c>
+      <c r="M98">
+        <v>-0.44154390270331001</v>
+      </c>
+    </row>
+    <row r="99" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="J99" s="3">
+        <v>116.01098</v>
+      </c>
+      <c r="K99" s="14">
+        <v>-1.0302779255622201</v>
+      </c>
+      <c r="L99">
+        <v>98</v>
+      </c>
+      <c r="M99">
+        <v>0.70385173937551504</v>
+      </c>
+    </row>
+    <row r="100" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I100" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J100" s="3">
+        <v>134.02154499999997</v>
+      </c>
+      <c r="K100" s="14">
+        <v>-9.5011014787010503E-2</v>
+      </c>
+      <c r="L100">
+        <v>99</v>
+      </c>
+      <c r="M100">
+        <v>9.8392399607045107</v>
+      </c>
+    </row>
+    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I101" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="J101" s="3">
+        <v>118.02663</v>
+      </c>
+      <c r="K101" s="14">
+        <v>-0.34665884844475597</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="M101">
+        <v>5.3009910729432299</v>
+      </c>
+    </row>
+    <row r="102" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I102" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="J102" s="3">
+        <v>146.02154499999997</v>
+      </c>
+      <c r="K102" s="14">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>101</v>
+      </c>
+      <c r="M102">
+        <v>0.79121766887186895</v>
+      </c>
+    </row>
+    <row r="103" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I103" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="J103" s="3">
+        <v>132.00589499999998</v>
+      </c>
+      <c r="K103" s="14">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>102</v>
+      </c>
+      <c r="M103">
+        <v>7.2987370713723303</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I104" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="J104" s="3">
+        <v>74.000415000000004</v>
+      </c>
+      <c r="K104" s="14">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>103</v>
+      </c>
+      <c r="M104">
+        <v>0.87763017871676996</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I105" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="J105" s="3">
+        <v>219.110694</v>
+      </c>
+      <c r="K105" s="14">
+        <v>11.9305363569646</v>
+      </c>
+      <c r="L105">
+        <v>104</v>
+      </c>
+      <c r="M105">
+        <v>10.9690079289289</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I106" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J106" s="3">
+        <v>687.14890600000001</v>
+      </c>
+      <c r="K106" s="14">
+        <v>12.208378059059999</v>
+      </c>
+      <c r="L106">
+        <v>105</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I107" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J107" s="3">
+        <v>167.02187899999998</v>
+      </c>
+      <c r="K107" s="14">
+        <v>10.0914108741934</v>
+      </c>
+      <c r="L107">
+        <v>106</v>
+      </c>
+      <c r="M107">
+        <v>8.3672951552539292</v>
+      </c>
+    </row>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I108" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="J108" s="3">
+        <v>123.032049</v>
+      </c>
+      <c r="K108" s="14">
+        <v>10.019139375892699</v>
+      </c>
+      <c r="L108">
+        <v>107</v>
+      </c>
+      <c r="M108">
+        <v>5.0946690396453302</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I109" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="J109">
+        <v>744.05947800000001</v>
+      </c>
+      <c r="K109" s="14">
+        <v>11.3817499655033</v>
+      </c>
+      <c r="L109">
+        <v>108</v>
+      </c>
+      <c r="M109">
+        <v>8.6828088286314102</v>
+      </c>
+    </row>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I110" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="J110">
+        <v>743.07546200000002</v>
+      </c>
+      <c r="K110" s="14">
+        <v>11.099076716207399</v>
+      </c>
+      <c r="L110">
+        <v>109</v>
+      </c>
+      <c r="M110">
+        <v>9.6603560401206607</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I111" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="J111" s="3">
+        <v>745.09113200000002</v>
+      </c>
+      <c r="K111" s="14">
+        <v>11.8149665706568</v>
+      </c>
+      <c r="L111">
+        <v>110</v>
+      </c>
+      <c r="M111">
+        <v>10.027533135001001</v>
+      </c>
+    </row>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I112" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="J112" s="3">
+        <v>665.12479899999994</v>
+      </c>
+      <c r="K112" s="14">
+        <v>11.828343433843701</v>
+      </c>
+      <c r="L112">
+        <v>111</v>
+      </c>
+      <c r="M112">
+        <v>8.4914508508923205</v>
+      </c>
+    </row>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I113" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="J113">
+        <v>663.10912900000005</v>
+      </c>
+      <c r="K113" s="14">
+        <v>9.54617584057927</v>
+      </c>
+      <c r="L113">
+        <v>112</v>
+      </c>
+      <c r="M113">
+        <v>8.5548924825036394</v>
+      </c>
+    </row>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I114" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="J114" s="3">
+        <v>307.08382899999998</v>
+      </c>
+      <c r="K114" s="14">
+        <v>1.54869561861593</v>
+      </c>
+      <c r="L114">
+        <v>113</v>
+      </c>
+      <c r="M114">
+        <v>0.93225213195767997</v>
+      </c>
+    </row>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I115" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="J115" s="3">
+        <v>612.15198799999996</v>
+      </c>
+      <c r="K115" s="14">
+        <v>5.2634994784037499</v>
+      </c>
+      <c r="L115">
+        <v>114</v>
+      </c>
+      <c r="M115">
+        <v>5.1987085755564699</v>
+      </c>
+    </row>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I116" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J116" s="3">
+        <v>160.084813</v>
+      </c>
+      <c r="K116" s="14">
+        <v>10.9749115978458</v>
+      </c>
+      <c r="L116">
+        <v>115</v>
+      </c>
+      <c r="M116">
+        <v>7.8136810274897197</v>
+      </c>
+    </row>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I117" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J117" s="3">
+        <v>138.03171499999999</v>
+      </c>
+      <c r="K117" s="14">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>116</v>
+      </c>
+      <c r="M117">
+        <v>6.1670560121575697</v>
+      </c>
+    </row>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I118" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J118" s="3">
+        <v>126.042948</v>
+      </c>
+      <c r="K118" s="14">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>117</v>
+      </c>
+      <c r="M118">
+        <v>8.8899797516409205</v>
+      </c>
+    </row>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I119" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="J119" s="3">
+        <v>265.11232799999999</v>
+      </c>
+      <c r="K119" s="14">
+        <v>12.0448756167821</v>
+      </c>
+      <c r="L119">
+        <v>118</v>
+      </c>
+      <c r="M119">
+        <v>8.9211290272552901</v>
+      </c>
+    </row>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I120" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="J120" s="3">
+        <v>89.047698999999994</v>
+      </c>
+      <c r="K120" s="14">
+        <v>7.4337216196534799</v>
+      </c>
+      <c r="L120">
+        <v>119</v>
+      </c>
+      <c r="M120">
+        <v>1.0760178584362801</v>
+      </c>
+    </row>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I121" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="J121" s="3">
+        <v>172.01369799999998</v>
+      </c>
+      <c r="K121" s="14">
+        <v>9.0535842839506593</v>
+      </c>
+      <c r="L121">
+        <v>120</v>
+      </c>
+      <c r="M121">
+        <v>6.8657111300818503</v>
+      </c>
+    </row>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I122" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="J122" s="3">
+        <v>138.03171499999999</v>
+      </c>
+      <c r="K122" s="14">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>121</v>
+      </c>
+      <c r="M122">
+        <v>2.9208355934411099</v>
+      </c>
+    </row>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I123" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J123" s="3">
+        <v>244.08818499999998</v>
+      </c>
+      <c r="K123" s="14">
+        <v>8.6089081777410801</v>
+      </c>
+      <c r="L123">
+        <v>122</v>
+      </c>
+      <c r="M123">
+        <v>7.80133547832411</v>
+      </c>
+    </row>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I124" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="J124" s="3">
+        <v>202.21576599999997</v>
+      </c>
+      <c r="K124" s="14">
+        <v>7.7873407972998399</v>
+      </c>
+      <c r="L124">
+        <v>123</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I125" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="J125" s="3">
+        <v>192.06340999999998</v>
+      </c>
+      <c r="K125" s="14">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>124</v>
+      </c>
+      <c r="M125">
+        <v>10.857694641163601</v>
+      </c>
+    </row>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I126" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="J126" s="3">
+        <v>89.047698999999994</v>
+      </c>
+      <c r="K126" s="14">
+        <v>4.5818086042579198</v>
+      </c>
+      <c r="L126">
+        <v>125</v>
+      </c>
+      <c r="M126">
+        <v>0.192592961700365</v>
+      </c>
+    </row>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I127" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="J127" s="3">
+        <v>135.03542099999999</v>
+      </c>
+      <c r="K127" s="14">
+        <v>7.5910700858294398</v>
+      </c>
+      <c r="L127">
+        <v>126</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I128" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="J128" s="3">
+        <v>441.139703</v>
+      </c>
+      <c r="K128" s="14">
+        <v>7.44403447264947</v>
+      </c>
+      <c r="L128">
+        <v>127</v>
+      </c>
+      <c r="M128">
+        <v>9.8345623169575394</v>
+      </c>
+    </row>
+    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I129" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="J129" s="3">
+        <v>122.048033</v>
+      </c>
+      <c r="K129" s="14">
+        <v>11.3083632386247</v>
+      </c>
+      <c r="L129">
+        <v>128</v>
+      </c>
+      <c r="M129">
+        <v>5.1688254178224096</v>
+      </c>
+    </row>
+    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I130" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="J130" s="3">
+        <v>169.07391399999997</v>
+      </c>
+      <c r="K130" s="14">
+        <v>11.406100681810701</v>
+      </c>
+      <c r="L130">
+        <v>129</v>
+      </c>
+      <c r="M130">
+        <v>10.9346487138646</v>
+      </c>
+    </row>
+    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I131" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J131" s="3">
+        <v>376.138306</v>
+      </c>
+      <c r="K131" s="14">
+        <v>11.665603586379699</v>
+      </c>
+      <c r="L131">
+        <v>130</v>
+      </c>
+      <c r="M131">
+        <v>9.5517672412460204</v>
+      </c>
+    </row>
+    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I132" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="J132" s="3">
+        <v>785.15716199999997</v>
+      </c>
+      <c r="K132" s="14">
+        <v>11.7672152581055</v>
+      </c>
+      <c r="L132">
+        <v>131</v>
+      </c>
+      <c r="M132">
+        <v>9.7080222259654505</v>
+      </c>
+    </row>
+    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I133" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="J133" s="3">
+        <v>456.10463899999996</v>
+      </c>
+      <c r="K133" s="14">
+        <v>11.923810386448199</v>
+      </c>
+      <c r="L133">
+        <v>132</v>
+      </c>
+      <c r="M133">
+        <v>9.6071034019273398</v>
+      </c>
+    </row>
+    <row r="134" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I134" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="J134" s="3">
+        <v>445.17100299999998</v>
+      </c>
+      <c r="K134" s="14">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>133</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I135" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="J135" s="3">
+        <v>853.115634</v>
+      </c>
+      <c r="K135" s="14">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>134</v>
+      </c>
+      <c r="M135">
+        <v>8.8420502458988306</v>
+      </c>
+    </row>
+    <row r="136" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I136" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J136" s="3">
+        <v>148.07357999999999</v>
+      </c>
+      <c r="K136" s="14">
+        <v>1.46582597357871</v>
+      </c>
+      <c r="L136">
+        <v>135</v>
+      </c>
+      <c r="M136">
+        <v>2.1361205670476902</v>
+      </c>
+    </row>
+    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I137" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="J137" s="3">
+        <v>247.024597</v>
+      </c>
+      <c r="K137" s="14">
+        <v>10.0058003324453</v>
+      </c>
+      <c r="L137">
+        <v>136</v>
+      </c>
+      <c r="M137">
+        <v>8.4126864458660702</v>
+      </c>
+    </row>
+    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I138" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J138" s="3">
+        <v>168.08989799999998</v>
+      </c>
+      <c r="K138" s="14">
+        <v>11.8946953965576</v>
+      </c>
+      <c r="L138">
+        <v>137</v>
+      </c>
+      <c r="M138">
+        <v>10.355178442396801</v>
+      </c>
+    </row>
+    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I139" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="J139" s="3">
+        <v>167.05826399999998</v>
+      </c>
+      <c r="K139" s="14">
+        <v>12.136799887497901</v>
+      </c>
+      <c r="L139">
+        <v>138</v>
+      </c>
+      <c r="M139">
+        <v>9.7195166586053805</v>
+      </c>
+    </row>
+    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I140" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="J140" s="3">
+        <v>102.115718</v>
+      </c>
+      <c r="K140" s="14">
+        <v>10.7430034749336</v>
+      </c>
+      <c r="L140">
+        <v>139</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I141" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="J141" s="3">
+        <v>428.01345699999996</v>
+      </c>
+      <c r="K141" s="14">
+        <v>10.1541293077136</v>
+      </c>
+      <c r="L141">
+        <v>140</v>
+      </c>
+      <c r="M141">
+        <v>8.6219172874671006</v>
+      </c>
+    </row>
+    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I142" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J142" s="3">
+        <v>284.07570599999997</v>
+      </c>
+      <c r="K142" s="14">
+        <v>11.6437759456</v>
+      </c>
+      <c r="L142">
+        <v>141</v>
+      </c>
+      <c r="M142">
+        <v>10.708620366536801</v>
+      </c>
+    </row>
+    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I143" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="J143" s="3">
+        <v>507.97978999999998</v>
+      </c>
+      <c r="K143" s="14">
+        <v>9.4746169445996298</v>
+      </c>
+      <c r="L143">
+        <v>142</v>
+      </c>
+      <c r="M143">
+        <v>8.5131984252792101</v>
+      </c>
+    </row>
+    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I144" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="J144" s="3">
+        <v>117.078999</v>
+      </c>
+      <c r="K144" s="14">
+        <v>0.52131431798751104</v>
+      </c>
+      <c r="L144">
+        <v>143</v>
+      </c>
+      <c r="M144">
+        <v>2.0977602726047602</v>
+      </c>
+    </row>
+    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I145" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J145" s="3">
+        <v>250.062365</v>
+      </c>
+      <c r="K145" s="14">
+        <v>10.604838208942001</v>
+      </c>
+      <c r="L145">
+        <v>144</v>
+      </c>
+      <c r="M145">
+        <v>6.3074403102096603</v>
+      </c>
+    </row>
+    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I146" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J146" s="3">
+        <v>178.041235</v>
+      </c>
+      <c r="K146" s="14">
+        <v>-0.42381860230082002</v>
+      </c>
+      <c r="L146">
+        <v>145</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I147" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="J147" s="3">
+        <v>137.08408399999999</v>
+      </c>
+      <c r="K147" s="14">
+        <v>11.5817876132032</v>
+      </c>
+      <c r="L147">
+        <v>146</v>
+      </c>
+      <c r="M147">
+        <v>8.9192174815850702</v>
+      </c>
+    </row>
+    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I148" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="J148" s="3">
+        <v>153.07899899999998</v>
+      </c>
+      <c r="K148" s="14">
+        <v>10.888885819997</v>
+      </c>
+      <c r="L148">
+        <v>147</v>
+      </c>
+      <c r="M148">
+        <v>9.7904836829144397</v>
+      </c>
+    </row>
+    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I149" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J149" s="3">
+        <v>121.089169</v>
+      </c>
+      <c r="K149" s="14">
+        <v>11.4283410135622</v>
+      </c>
+      <c r="L149">
+        <v>148</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I150" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="J150">
+        <v>138.03171499999999</v>
+      </c>
+      <c r="K150" s="14">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>149</v>
+      </c>
+      <c r="M150">
+        <v>3.3965857054198501</v>
+      </c>
+    </row>
+    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I151" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="J151">
+        <v>164.08374999999998</v>
+      </c>
+      <c r="K151" s="14">
+        <v>0.15381943700137399</v>
+      </c>
+      <c r="L151">
+        <v>150</v>
+      </c>
+      <c r="M151">
+        <v>10.616334960977699</v>
+      </c>
+    </row>
+    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I152" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J152">
+        <v>197.06882899999999</v>
+      </c>
+      <c r="K152" s="14">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>151</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I153" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J153">
+        <v>218.09029299999997</v>
+      </c>
+      <c r="K153" s="14">
+        <v>11.6576000869947</v>
+      </c>
+      <c r="L153">
+        <v>152</v>
+      </c>
+      <c r="M153">
+        <v>9.0899323517870201</v>
+      </c>
+    </row>
+    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I154" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J154">
+        <v>129.10146499999999</v>
+      </c>
+      <c r="K154" s="14">
+        <v>11.6972879582283</v>
+      </c>
+      <c r="L154">
+        <v>153</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I155" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J155">
+        <v>180.05688499999999</v>
+      </c>
+      <c r="K155" s="14">
+        <v>11.717604347598201</v>
+      </c>
+      <c r="L155">
+        <v>154</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I156" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J156">
+        <v>130.06301499999998</v>
+      </c>
+      <c r="K156" s="14">
+        <v>0.96349069600191495</v>
+      </c>
+      <c r="L156">
+        <v>155</v>
+      </c>
+      <c r="M156">
+        <v>0.28317481222566299</v>
+      </c>
+    </row>
+    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I157" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J157">
+        <v>86.073184999999995</v>
+      </c>
+      <c r="K157" s="14">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>156</v>
+      </c>
+      <c r="M157">
+        <v>-0.50272415093994605</v>
+      </c>
+    </row>
+    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I158" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J158">
+        <v>176.09498299999998</v>
+      </c>
+      <c r="K158" s="14">
+        <v>10.7449097675443</v>
+      </c>
+      <c r="L158">
+        <v>157</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I159" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J159">
+        <v>125.014686</v>
+      </c>
+      <c r="K159" s="14">
+        <v>9.6022791242437204</v>
+      </c>
+      <c r="L159">
+        <v>158</v>
+      </c>
+      <c r="M159">
+        <v>9.8971582563191003</v>
+      </c>
+    </row>
+    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I160" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J160">
+        <v>160.10006799999999</v>
+      </c>
+      <c r="K160" s="14">
+        <v>11.3919874336053</v>
+      </c>
+      <c r="L160">
+        <v>159</v>
+      </c>
+      <c r="M160">
+        <v>7.4760991208463397</v>
+      </c>
+    </row>
+    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I161" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J161" s="15">
+        <v>172.05244999999999</v>
+      </c>
+      <c r="K161" s="17">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>160</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fig1/Supplements1.xlsx
+++ b/fig1/Supplements1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QTOF\MethodPaper\fig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63246A88-F75D-4A6B-9646-721E0A634FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4AF1D-5C7B-413F-B599-BD1BCAE9EE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical_Standards" sheetId="1" r:id="rId1"/>
@@ -4632,44 +4632,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
-    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1796875" customWidth="1"/>
+    <col min="15" max="15" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.26953125" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.54296875" customWidth="1"/>
+    <col min="22" max="22" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" customWidth="1"/>
-    <col min="29" max="29" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.1796875" customWidth="1"/>
+    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.453125" customWidth="1"/>
+    <col min="29" max="29" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>133.03752899999998</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>147.053179</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -20172,7 +20172,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -20300,7 +20300,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20684,7 +20684,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -22088,7 +22088,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -23623,7 +23623,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -24007,7 +24007,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -24131,7 +24131,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -24259,7 +24259,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -24771,7 +24771,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -25027,7 +25027,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -25155,7 +25155,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
       <c r="F162" s="14"/>
       <c r="L162">
         <f>SUM(L2:L161)</f>
@@ -25316,7 +25316,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
       <c r="AN163" s="16" t="s">
         <v>970</v>
       </c>
@@ -25428,12 +25428,12 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1335</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1242</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1242</v>
       </c>
@@ -25457,7 +25457,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1245</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1246</v>
       </c>
@@ -25473,7 +25473,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1248</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1250</v>
       </c>
@@ -25489,7 +25489,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1252</v>
       </c>
@@ -25497,7 +25497,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1254</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1256</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1257</v>
       </c>
@@ -25521,7 +25521,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1259</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1261</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1262</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1264</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1265</v>
       </c>
@@ -25561,7 +25561,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1267</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1269</v>
       </c>
@@ -25577,7 +25577,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1271</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1272</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1274</v>
       </c>
@@ -25601,7 +25601,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1276</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1278</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1280</v>
       </c>
@@ -25625,7 +25625,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1282</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1284</v>
       </c>
@@ -25641,7 +25641,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1284</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1285</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1287</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1288</v>
       </c>
@@ -25673,7 +25673,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1290</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1292</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1294</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1295</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1297</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1299</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1003</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1003</v>
       </c>
@@ -25737,7 +25737,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1303</v>
       </c>
@@ -25745,7 +25745,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1305</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1305</v>
       </c>
@@ -25761,7 +25761,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1308</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1308</v>
       </c>
@@ -25777,7 +25777,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1311</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1312</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1314</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1316</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1318</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1319</v>
       </c>
@@ -25825,7 +25825,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1321</v>
       </c>
@@ -25833,7 +25833,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1323</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1324</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1326</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1328</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1329</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1331</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1333</v>
       </c>
@@ -25902,12 +25902,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29"/>
       <c r="B1" s="15" t="s">
         <v>168</v>
@@ -26372,7 +26372,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>1183</v>
       </c>
@@ -26839,7 +26839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>890</v>
       </c>
@@ -27306,7 +27306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>976</v>
       </c>
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>891</v>
       </c>
@@ -28240,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>877</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>972</v>
       </c>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>896</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>893</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>1199</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>1215</v>
       </c>
@@ -31042,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>1223</v>
       </c>
@@ -31509,7 +31509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>914</v>
       </c>
@@ -31976,7 +31976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>925</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
         <v>949</v>
       </c>
@@ -32910,7 +32910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>926</v>
       </c>
@@ -33377,7 +33377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>1115</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>1143</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>1147</v>
       </c>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>1148</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>1149</v>
       </c>
@@ -35712,7 +35712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>951</v>
       </c>
@@ -36179,7 +36179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>1084</v>
       </c>
@@ -36646,7 +36646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>884</v>
       </c>
@@ -37113,7 +37113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>881</v>
       </c>
@@ -37580,7 +37580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>1198</v>
       </c>
@@ -38047,7 +38047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>941</v>
       </c>
@@ -38514,7 +38514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>909</v>
       </c>
@@ -38981,7 +38981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>957</v>
       </c>
@@ -39448,7 +39448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>930</v>
       </c>
@@ -39915,7 +39915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>935</v>
       </c>
@@ -40382,7 +40382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>869</v>
       </c>
@@ -40849,7 +40849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>874</v>
       </c>
@@ -41316,7 +41316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>911</v>
       </c>
@@ -41783,7 +41783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
         <v>880</v>
       </c>
@@ -42250,7 +42250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>903</v>
       </c>
@@ -42717,7 +42717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>1211</v>
       </c>
@@ -43184,7 +43184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>1213</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
         <v>1216</v>
       </c>
@@ -44118,7 +44118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>902</v>
       </c>
@@ -44585,7 +44585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>974</v>
       </c>
@@ -45052,7 +45052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>956</v>
       </c>
@@ -45519,7 +45519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>973</v>
       </c>
@@ -45986,7 +45986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A44" s="24" t="s">
         <v>895</v>
       </c>
@@ -46453,7 +46453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A45" s="24" t="s">
         <v>921</v>
       </c>
@@ -46920,7 +46920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A46" s="24" t="s">
         <v>929</v>
       </c>
@@ -47387,7 +47387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A47" s="24" t="s">
         <v>871</v>
       </c>
@@ -47854,7 +47854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A48" s="24" t="s">
         <v>927</v>
       </c>
@@ -48321,7 +48321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
         <v>897</v>
       </c>
@@ -48788,7 +48788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A50" s="24" t="s">
         <v>960</v>
       </c>
@@ -49255,7 +49255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A51" s="24" t="s">
         <v>892</v>
       </c>
@@ -49722,7 +49722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A52" s="24" t="s">
         <v>1094</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A53" s="24" t="s">
         <v>887</v>
       </c>
@@ -50656,7 +50656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>923</v>
       </c>
@@ -51123,7 +51123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>955</v>
       </c>
@@ -51590,7 +51590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>1185</v>
       </c>
@@ -52057,7 +52057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>889</v>
       </c>
@@ -52524,7 +52524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>931</v>
       </c>
@@ -52991,7 +52991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>979</v>
       </c>
@@ -53458,7 +53458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>1146</v>
       </c>
@@ -53925,7 +53925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>964</v>
       </c>
@@ -54392,7 +54392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>1151</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A63" s="24" t="s">
         <v>919</v>
       </c>
@@ -55326,7 +55326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A64" s="24" t="s">
         <v>1081</v>
       </c>
@@ -55793,7 +55793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A65" s="24" t="s">
         <v>985</v>
       </c>
@@ -56260,7 +56260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A66" s="24" t="s">
         <v>932</v>
       </c>
@@ -56727,7 +56727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A67" s="24" t="s">
         <v>1085</v>
       </c>
@@ -57194,7 +57194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A68" s="24" t="s">
         <v>981</v>
       </c>
@@ -57661,7 +57661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">
         <v>920</v>
       </c>
@@ -58128,7 +58128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A70" s="24" t="s">
         <v>987</v>
       </c>
@@ -58595,7 +58595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="s">
         <v>876</v>
       </c>
@@ -59062,7 +59062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A72" s="24" t="s">
         <v>918</v>
       </c>
@@ -59529,7 +59529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A73" s="24" t="s">
         <v>1201</v>
       </c>
@@ -59996,7 +59996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A74" s="24" t="s">
         <v>936</v>
       </c>
@@ -60463,7 +60463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>934</v>
       </c>
@@ -60930,7 +60930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A76" s="24" t="s">
         <v>1099</v>
       </c>
@@ -61397,7 +61397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A77" s="24" t="s">
         <v>952</v>
       </c>
@@ -61864,7 +61864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A78" s="24" t="s">
         <v>1205</v>
       </c>
@@ -62331,7 +62331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A79" s="24" t="s">
         <v>946</v>
       </c>
@@ -62798,7 +62798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A80" s="24" t="s">
         <v>873</v>
       </c>
@@ -63265,7 +63265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A81" s="24" t="s">
         <v>916</v>
       </c>
@@ -63732,7 +63732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A82" s="24" t="s">
         <v>898</v>
       </c>
@@ -64199,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
         <v>882</v>
       </c>
@@ -64666,7 +64666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
         <v>978</v>
       </c>
@@ -65133,7 +65133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A85" s="24" t="s">
         <v>917</v>
       </c>
@@ -65600,7 +65600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A86" s="24" t="s">
         <v>1214</v>
       </c>
@@ -66067,7 +66067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A87" s="24" t="s">
         <v>990</v>
       </c>
@@ -66534,7 +66534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A88" s="24" t="s">
         <v>1218</v>
       </c>
@@ -67001,7 +67001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A89" s="24" t="s">
         <v>888</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A90" s="24" t="s">
         <v>924</v>
       </c>
@@ -67935,7 +67935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A91" s="24" t="s">
         <v>879</v>
       </c>
@@ -68402,7 +68402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
         <v>975</v>
       </c>
@@ -68869,7 +68869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A93" s="24" t="s">
         <v>1229</v>
       </c>
@@ -69336,7 +69336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="s">
         <v>953</v>
       </c>
@@ -69803,7 +69803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A95" s="24" t="s">
         <v>986</v>
       </c>
@@ -70270,7 +70270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A96" s="24" t="s">
         <v>928</v>
       </c>
@@ -70737,7 +70737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>868</v>
       </c>
@@ -71204,7 +71204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A98" s="24" t="s">
         <v>866</v>
       </c>
@@ -71671,7 +71671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A99" s="24" t="s">
         <v>1092</v>
       </c>
@@ -72138,7 +72138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A100" s="24" t="s">
         <v>1231</v>
       </c>
@@ -72605,7 +72605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A101" s="24" t="s">
         <v>950</v>
       </c>
@@ -73072,7 +73072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="s">
         <v>1232</v>
       </c>
@@ -73539,7 +73539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A103" s="24" t="s">
         <v>933</v>
       </c>
@@ -74006,7 +74006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A104" s="24" t="s">
         <v>883</v>
       </c>
@@ -74473,7 +74473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A105" s="24" t="s">
         <v>872</v>
       </c>
@@ -74940,7 +74940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A106" s="24" t="s">
         <v>945</v>
       </c>
@@ -75407,7 +75407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>959</v>
       </c>
@@ -75874,7 +75874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A108" s="24" t="s">
         <v>948</v>
       </c>
@@ -76341,7 +76341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A109" s="24" t="s">
         <v>1235</v>
       </c>
@@ -76808,7 +76808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A110" s="24" t="s">
         <v>943</v>
       </c>
@@ -77275,7 +77275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A111" s="24" t="s">
         <v>962</v>
       </c>
@@ -77742,7 +77742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A112" s="24" t="s">
         <v>963</v>
       </c>
@@ -78209,7 +78209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A113" s="24" t="s">
         <v>1073</v>
       </c>
@@ -78676,7 +78676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>1074</v>
       </c>
@@ -79143,7 +79143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>1072</v>
       </c>
@@ -79610,7 +79610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>1071</v>
       </c>
@@ -80077,7 +80077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>1069</v>
       </c>
@@ -80544,7 +80544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>958</v>
       </c>
@@ -81011,7 +81011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>900</v>
       </c>
@@ -81478,7 +81478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>942</v>
       </c>
@@ -81945,7 +81945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>961</v>
       </c>
@@ -82412,7 +82412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A122" s="24" t="s">
         <v>1080</v>
       </c>
@@ -82879,7 +82879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A123" s="24" t="s">
         <v>1186</v>
       </c>
@@ -83346,7 +83346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A124" s="24" t="s">
         <v>1118</v>
       </c>
@@ -83813,7 +83813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A125" s="24" t="s">
         <v>944</v>
       </c>
@@ -84280,7 +84280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A126" s="24" t="s">
         <v>1120</v>
       </c>
@@ -84747,7 +84747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A127" s="24" t="s">
         <v>870</v>
       </c>
@@ -85214,7 +85214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A128" s="24" t="s">
         <v>954</v>
       </c>
@@ -85681,7 +85681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A129" s="24" t="s">
         <v>865</v>
       </c>
@@ -86148,7 +86148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A130" s="24" t="s">
         <v>1132</v>
       </c>
@@ -86615,7 +86615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A131" s="24" t="s">
         <v>940</v>
       </c>
@@ -87082,7 +87082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A132" s="24" t="s">
         <v>1187</v>
       </c>
@@ -87549,7 +87549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A133" s="24" t="s">
         <v>937</v>
       </c>
@@ -88016,7 +88016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A134" s="24" t="s">
         <v>939</v>
       </c>
@@ -88483,7 +88483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A135" s="24" t="s">
         <v>1189</v>
       </c>
@@ -88950,7 +88950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A136" s="24" t="s">
         <v>1142</v>
       </c>
@@ -89417,7 +89417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A137" s="24" t="s">
         <v>1190</v>
       </c>
@@ -89884,7 +89884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A138" s="24" t="s">
         <v>1145</v>
       </c>
@@ -90351,7 +90351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A139" s="24" t="s">
         <v>938</v>
       </c>
@@ -90818,7 +90818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A140" s="24" t="s">
         <v>988</v>
       </c>
@@ -91285,7 +91285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A141" s="24" t="s">
         <v>1191</v>
       </c>
@@ -91752,7 +91752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A142" s="24" t="s">
         <v>1192</v>
       </c>
@@ -92219,7 +92219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A143" s="24" t="s">
         <v>878</v>
       </c>
@@ -92686,7 +92686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A144" s="24" t="s">
         <v>1152</v>
       </c>
@@ -93153,7 +93153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A145" s="24" t="s">
         <v>875</v>
       </c>
@@ -93620,7 +93620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A146" s="24" t="s">
         <v>1193</v>
       </c>
@@ -94087,7 +94087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A147" s="24" t="s">
         <v>922</v>
       </c>
@@ -94554,7 +94554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A148" s="24" t="s">
         <v>1082</v>
       </c>
@@ -95021,7 +95021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A149" s="24" t="s">
         <v>1194</v>
       </c>
@@ -95488,7 +95488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A150" s="24" t="s">
         <v>983</v>
       </c>
@@ -95955,7 +95955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A151" s="24" t="s">
         <v>1170</v>
       </c>
@@ -96422,7 +96422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A152" s="24" t="s">
         <v>1083</v>
       </c>
@@ -96889,7 +96889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A153" s="24" t="s">
         <v>1195</v>
       </c>
@@ -97356,7 +97356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A154" s="24" t="s">
         <v>1196</v>
       </c>
@@ -97823,7 +97823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:155" x14ac:dyDescent="0.35">
       <c r="A155" s="24" t="s">
         <v>1086</v>
       </c>
@@ -98315,18 +98315,18 @@
       <selection activeCell="G88" sqref="G88:G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>1339</v>
       </c>
@@ -98346,7 +98346,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
@@ -98381,7 +98381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -98415,7 +98415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>64</v>
       </c>
@@ -98449,7 +98449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -98483,7 +98483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -98514,7 +98514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>76</v>
       </c>
@@ -98548,7 +98548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -98582,7 +98582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -98606,7 +98606,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>100</v>
       </c>
@@ -98633,7 +98633,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -98660,7 +98660,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>135</v>
       </c>
@@ -98687,7 +98687,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>162</v>
       </c>
@@ -98714,7 +98714,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -98738,7 +98738,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>208</v>
       </c>
@@ -98765,7 +98765,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -98791,7 +98791,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>305</v>
       </c>
@@ -98817,7 +98817,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
         <v>305</v>
       </c>
@@ -98840,7 +98840,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>310</v>
       </c>
@@ -98866,7 +98866,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>316</v>
       </c>
@@ -98893,7 +98893,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -98920,7 +98920,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>343</v>
       </c>
@@ -98946,7 +98946,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>373</v>
       </c>
@@ -98972,7 +98972,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>373</v>
       </c>
@@ -98995,7 +98995,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>391</v>
       </c>
@@ -99021,7 +99021,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>403</v>
       </c>
@@ -99047,7 +99047,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>403</v>
       </c>
@@ -99070,7 +99070,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>409</v>
       </c>
@@ -99097,7 +99097,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>409</v>
       </c>
@@ -99120,7 +99120,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>415</v>
       </c>
@@ -99147,7 +99147,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>491</v>
       </c>
@@ -99174,7 +99174,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>623</v>
       </c>
@@ -99201,7 +99201,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>623</v>
       </c>
@@ -99225,7 +99225,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>634</v>
       </c>
@@ -99252,7 +99252,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>692</v>
       </c>
@@ -99279,7 +99279,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>692</v>
       </c>
@@ -99303,7 +99303,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>708</v>
       </c>
@@ -99329,7 +99329,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>714</v>
       </c>
@@ -99356,7 +99356,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>714</v>
       </c>
@@ -99379,7 +99379,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>714</v>
       </c>
@@ -99402,7 +99402,7 @@
       </c>
       <c r="G40" s="30"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>726</v>
       </c>
@@ -99428,7 +99428,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
         <v>726</v>
       </c>
@@ -99451,7 +99451,7 @@
       </c>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>743</v>
       </c>
@@ -99478,7 +99478,7 @@
         <v>Cofactor Metabolism</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>814</v>
       </c>
@@ -99505,7 +99505,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>843</v>
       </c>
@@ -99532,7 +99532,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>843</v>
       </c>
@@ -99555,7 +99555,7 @@
       </c>
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>843</v>
       </c>
@@ -99579,7 +99579,7 @@
       </c>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>843</v>
       </c>
@@ -99602,7 +99602,7 @@
       </c>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>843</v>
       </c>
@@ -99625,7 +99625,7 @@
       </c>
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="27" t="s">
         <v>861</v>
       </c>
@@ -99651,7 +99651,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1037</v>
       </c>
@@ -99678,7 +99678,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>1048</v>
       </c>
@@ -99705,7 +99705,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>139</v>
       </c>
@@ -99732,7 +99732,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="27" t="s">
         <v>145</v>
       </c>
@@ -99759,7 +99759,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -99786,7 +99786,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>168</v>
       </c>
@@ -99813,7 +99813,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -99839,7 +99839,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="27" t="s">
         <v>190</v>
       </c>
@@ -99865,7 +99865,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>226</v>
       </c>
@@ -99892,7 +99892,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
         <v>250</v>
       </c>
@@ -99919,7 +99919,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>290</v>
       </c>
@@ -99946,7 +99946,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="27" t="s">
         <v>367</v>
       </c>
@@ -99973,7 +99973,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>397</v>
       </c>
@@ -100000,7 +100000,7 @@
         <v>Nucleotide Metabolism</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="27" t="s">
         <v>451</v>
       </c>
@@ -100027,7 +100027,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="27" t="s">
         <v>451</v>
       </c>
@@ -100050,7 +100050,7 @@
       </c>
       <c r="G65" s="30"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>474</v>
       </c>
@@ -100076,7 +100076,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>474</v>
       </c>
@@ -100100,7 +100100,7 @@
       </c>
       <c r="G67" s="30"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>474</v>
       </c>
@@ -100123,7 +100123,7 @@
       </c>
       <c r="G68" s="30"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="27" t="s">
         <v>480</v>
       </c>
@@ -100149,7 +100149,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
         <v>480</v>
       </c>
@@ -100172,7 +100172,7 @@
       </c>
       <c r="G70" s="30"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>486</v>
       </c>
@@ -100198,7 +100198,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>486</v>
       </c>
@@ -100221,7 +100221,7 @@
       </c>
       <c r="G72" s="30"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="27" t="s">
         <v>496</v>
       </c>
@@ -100247,7 +100247,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>514</v>
       </c>
@@ -100274,7 +100274,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>514</v>
       </c>
@@ -100297,7 +100297,7 @@
       </c>
       <c r="G75" s="30"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="27" t="s">
         <v>520</v>
       </c>
@@ -100323,7 +100323,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
         <v>520</v>
       </c>
@@ -100346,7 +100346,7 @@
       </c>
       <c r="G77" s="30"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>526</v>
       </c>
@@ -100372,7 +100372,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>526</v>
       </c>
@@ -100395,7 +100395,7 @@
       </c>
       <c r="G79" s="30"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="27" t="s">
         <v>531</v>
       </c>
@@ -100421,7 +100421,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
         <v>531</v>
       </c>
@@ -100444,7 +100444,7 @@
       </c>
       <c r="G81" s="30"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>559</v>
       </c>
@@ -100470,7 +100470,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="27" t="s">
         <v>565</v>
       </c>
@@ -100496,7 +100496,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>570</v>
       </c>
@@ -100522,7 +100522,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>599</v>
       </c>
@@ -100549,7 +100549,7 @@
         <v>Central Metabolism</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>599</v>
       </c>
@@ -100573,7 +100573,7 @@
       </c>
       <c r="G86" s="30"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
         <v>599</v>
       </c>
@@ -100597,7 +100597,7 @@
       </c>
       <c r="G87" s="30"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>656</v>
       </c>
@@ -100624,7 +100624,7 @@
         <v>Antioxidants</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>656</v>
       </c>
@@ -100648,7 +100648,7 @@
       </c>
       <c r="G89" s="30"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>656</v>
       </c>
@@ -100671,7 +100671,7 @@
       </c>
       <c r="G90" s="30"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>656</v>
       </c>
@@ -100694,7 +100694,7 @@
       </c>
       <c r="G91" s="30"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>656</v>
       </c>
@@ -100717,7 +100717,7 @@
       </c>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>656</v>
       </c>
@@ -100741,7 +100741,7 @@
       </c>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>656</v>
       </c>
@@ -100764,7 +100764,7 @@
       </c>
       <c r="G94" s="30"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="27" t="s">
         <v>674</v>
       </c>
@@ -100791,7 +100791,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>674</v>
       </c>
@@ -100815,7 +100815,7 @@
       </c>
       <c r="G96" s="30"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>703</v>
       </c>
@@ -100842,7 +100842,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>703</v>
       </c>
@@ -100866,7 +100866,7 @@
       </c>
       <c r="G98" s="30"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>703</v>
       </c>
@@ -100890,7 +100890,7 @@
       </c>
       <c r="G99" s="30"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="27" t="s">
         <v>832</v>
       </c>
@@ -100917,7 +100917,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>993</v>
       </c>
@@ -100944,7 +100944,7 @@
         <v>Amino Acid Metabolism</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>993</v>
       </c>
@@ -100968,7 +100968,7 @@
       </c>
       <c r="G102" s="30"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="27" t="s">
         <v>1027</v>
       </c>
@@ -100995,7 +100995,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="27" t="s">
         <v>1027</v>
       </c>
@@ -101019,7 +101019,7 @@
       </c>
       <c r="G104" s="30"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F105">
         <f>SUM(F2:F104)</f>
         <v>15</v>
@@ -101027,6 +101027,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="G88:G94"/>
+    <mergeCell ref="G95:G96"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G103:G104"/>
     <mergeCell ref="G5:G6"/>
@@ -101043,16 +101053,6 @@
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G45:G49"/>
     <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="G88:G94"/>
-    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -101067,9 +101067,9 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1347</v>
       </c>
@@ -101077,7 +101077,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -101104,7 +101104,7 @@
         <v>4.26211395950126</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -101131,7 +101131,7 @@
         <v>3.0496712507941699</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>570</v>
       </c>
@@ -101158,7 +101158,7 @@
         <v>8.8223646351729794</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -101185,7 +101185,7 @@
         <v>8.7434374745500207</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -101212,7 +101212,7 @@
         <v>10.816873987075001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>843</v>
       </c>
@@ -101239,7 +101239,7 @@
         <v>10.2060827473772</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>196</v>
       </c>
@@ -101266,7 +101266,7 @@
         <v>10.190728200956199</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -101293,7 +101293,7 @@
         <v>6.3879128904232196</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -101320,7 +101320,7 @@
         <v>4.5755396287649797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>474</v>
       </c>
@@ -101347,7 +101347,7 @@
         <v>6.6633511009513597</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>547</v>
       </c>
@@ -101374,7 +101374,7 @@
         <v>8.0550275106298201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>559</v>
       </c>
@@ -101401,7 +101401,7 @@
         <v>2.7832376079201602</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>565</v>
       </c>
@@ -101428,7 +101428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>587</v>
       </c>
@@ -101455,7 +101455,7 @@
         <v>4.7938242566399101</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>656</v>
       </c>
@@ -101482,7 +101482,7 @@
         <v>4.2871096453832198</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>703</v>
       </c>
@@ -101509,7 +101509,7 @@
         <v>6.5851372204700098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>784</v>
       </c>
@@ -101536,7 +101536,7 @@
         <v>6.1925905818360896</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>832</v>
       </c>
@@ -101563,7 +101563,7 @@
         <v>11.298813884621101</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1027</v>
       </c>
@@ -101590,7 +101590,7 @@
         <v>8.5970654749095505</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1031</v>
       </c>
@@ -101617,7 +101617,7 @@
         <v>4.6934419849712699</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I22" s="3" t="s">
         <v>129</v>
       </c>
@@ -101634,7 +101634,7 @@
         <v>5.2316935090946401</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I23" s="3" t="s">
         <v>135</v>
       </c>
@@ -101651,7 +101651,7 @@
         <v>5.50400419043961</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I24" s="3" t="s">
         <v>139</v>
       </c>
@@ -101668,7 +101668,7 @@
         <v>6.7273453591330803</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I25" s="3" t="s">
         <v>145</v>
       </c>
@@ -101685,7 +101685,7 @@
         <v>8.3501735395806005</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I26" s="3" t="s">
         <v>150</v>
       </c>
@@ -101702,7 +101702,7 @@
         <v>11.9062377859095</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I27" s="3" t="s">
         <v>156</v>
       </c>
@@ -101719,7 +101719,7 @@
         <v>9.3906041629502592</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I28" s="3" t="s">
         <v>162</v>
       </c>
@@ -101736,7 +101736,7 @@
         <v>4.9505005329031002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I29" s="3" t="s">
         <v>168</v>
       </c>
@@ -101753,7 +101753,7 @@
         <v>2.4869068190123498</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I30" s="3" t="s">
         <v>174</v>
       </c>
@@ -101770,7 +101770,7 @@
         <v>10.4583961710804</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I31" s="3" t="s">
         <v>180</v>
       </c>
@@ -101787,7 +101787,7 @@
         <v>9.8861667896533501</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I32" s="3" t="s">
         <v>185</v>
       </c>
@@ -101804,7 +101804,7 @@
         <v>8.1440353284684406</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I33" s="3" t="s">
         <v>190</v>
       </c>
@@ -101821,7 +101821,7 @@
         <v>9.3390752565361304</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I34" s="3" t="s">
         <v>196</v>
       </c>
@@ -101838,7 +101838,7 @@
         <v>1.8491209215957201</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I35" s="3" t="s">
         <v>202</v>
       </c>
@@ -101855,7 +101855,7 @@
         <v>0.62306093351130898</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I36" s="3" t="s">
         <v>208</v>
       </c>
@@ -101872,7 +101872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I37" s="3" t="s">
         <v>214</v>
       </c>
@@ -101889,7 +101889,7 @@
         <v>-0.32580553789276001</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I38" s="3" t="s">
         <v>220</v>
       </c>
@@ -101906,7 +101906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I39" s="3" t="s">
         <v>226</v>
       </c>
@@ -101923,7 +101923,7 @@
         <v>5.1122554583698703</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I40" s="3" t="s">
         <v>232</v>
       </c>
@@ -101940,7 +101940,7 @@
         <v>10.372493326879599</v>
       </c>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I41" s="3" t="s">
         <v>238</v>
       </c>
@@ -101957,7 +101957,7 @@
         <v>5.23624272995698</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I42" s="3" t="s">
         <v>244</v>
       </c>
@@ -101974,7 +101974,7 @@
         <v>10.4813288489839</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I43" s="3" t="s">
         <v>250</v>
       </c>
@@ -101991,7 +101991,7 @@
         <v>9.2923049080441</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I44" s="3" t="s">
         <v>256</v>
       </c>
@@ -102008,7 +102008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I45" s="3" t="s">
         <v>262</v>
       </c>
@@ -102025,7 +102025,7 @@
         <v>9.2956137221194304</v>
       </c>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I46" s="3" t="s">
         <v>268</v>
       </c>
@@ -102042,7 +102042,7 @@
         <v>9.7240749164311104</v>
       </c>
     </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I47" s="3" t="s">
         <v>274</v>
       </c>
@@ -102059,7 +102059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I48" s="3" t="s">
         <v>279</v>
       </c>
@@ -102076,7 +102076,7 @@
         <v>8.7576024793999494</v>
       </c>
     </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I49" s="3" t="s">
         <v>284</v>
       </c>
@@ -102093,7 +102093,7 @@
         <v>7.5267034269741302</v>
       </c>
     </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I50" s="3" t="s">
         <v>290</v>
       </c>
@@ -102110,7 +102110,7 @@
         <v>8.4612446645512804</v>
       </c>
     </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I51" s="3" t="s">
         <v>295</v>
       </c>
@@ -102127,7 +102127,7 @@
         <v>11.1730907492976</v>
       </c>
     </row>
-    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I52" s="3" t="s">
         <v>300</v>
       </c>
@@ -102144,7 +102144,7 @@
         <v>10.9728322269</v>
       </c>
     </row>
-    <row r="53" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I53" s="3" t="s">
         <v>305</v>
       </c>
@@ -102161,7 +102161,7 @@
         <v>7.5814333846684203</v>
       </c>
     </row>
-    <row r="54" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I54" s="3" t="s">
         <v>310</v>
       </c>
@@ -102178,7 +102178,7 @@
         <v>8.3416312298527906</v>
       </c>
     </row>
-    <row r="55" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I55" s="3" t="s">
         <v>316</v>
       </c>
@@ -102195,7 +102195,7 @@
         <v>9.7789711649370599</v>
       </c>
     </row>
-    <row r="56" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I56" s="3" t="s">
         <v>322</v>
       </c>
@@ -102212,7 +102212,7 @@
         <v>10.1770988936669</v>
       </c>
     </row>
-    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I57" s="3" t="s">
         <v>327</v>
       </c>
@@ -102229,7 +102229,7 @@
         <v>10.426810597140699</v>
       </c>
     </row>
-    <row r="58" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I58" s="3" t="s">
         <v>332</v>
       </c>
@@ -102246,7 +102246,7 @@
         <v>10.3352387636132</v>
       </c>
     </row>
-    <row r="59" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I59" s="3" t="s">
         <v>338</v>
       </c>
@@ -102263,7 +102263,7 @@
         <v>10.147591429992699</v>
       </c>
     </row>
-    <row r="60" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I60" s="3" t="s">
         <v>343</v>
       </c>
@@ -102280,7 +102280,7 @@
         <v>9.0919736120686103</v>
       </c>
     </row>
-    <row r="61" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I61" s="3" t="s">
         <v>349</v>
       </c>
@@ -102297,7 +102297,7 @@
         <v>9.4803897274918008</v>
       </c>
     </row>
-    <row r="62" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I62" s="3" t="s">
         <v>355</v>
       </c>
@@ -102314,7 +102314,7 @@
         <v>8.5239146741440805</v>
       </c>
     </row>
-    <row r="63" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I63" s="3" t="s">
         <v>361</v>
       </c>
@@ -102331,7 +102331,7 @@
         <v>10.486851939394899</v>
       </c>
     </row>
-    <row r="64" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I64" s="3" t="s">
         <v>367</v>
       </c>
@@ -102348,7 +102348,7 @@
         <v>8.7856788899646592</v>
       </c>
     </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I65" s="3" t="s">
         <v>373</v>
       </c>
@@ -102365,7 +102365,7 @@
         <v>5.9330177350812896</v>
       </c>
     </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I66" s="3" t="s">
         <v>379</v>
       </c>
@@ -102382,7 +102382,7 @@
         <v>10.954906647723</v>
       </c>
     </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I67" s="3" t="s">
         <v>385</v>
       </c>
@@ -102399,7 +102399,7 @@
         <v>9.9561142034536498</v>
       </c>
     </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I68" s="3" t="s">
         <v>391</v>
       </c>
@@ -102416,7 +102416,7 @@
         <v>9.3570425827893704</v>
       </c>
     </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I69" s="3" t="s">
         <v>397</v>
       </c>
@@ -102433,7 +102433,7 @@
         <v>-0.41830693236305899</v>
       </c>
     </row>
-    <row r="70" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I70" s="3" t="s">
         <v>403</v>
       </c>
@@ -102450,7 +102450,7 @@
         <v>5.5532046272166298</v>
       </c>
     </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I71" s="3" t="s">
         <v>409</v>
       </c>
@@ -102467,7 +102467,7 @@
         <v>10.347405892417299</v>
       </c>
     </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I72" s="3" t="s">
         <v>415</v>
       </c>
@@ -102484,7 +102484,7 @@
         <v>7.5482291657829998</v>
       </c>
     </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I73" s="3" t="s">
         <v>421</v>
       </c>
@@ -102501,7 +102501,7 @@
         <v>3.7761810202462298</v>
       </c>
     </row>
-    <row r="74" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I74" s="3" t="s">
         <v>427</v>
       </c>
@@ -102518,7 +102518,7 @@
         <v>8.4250423189428094</v>
       </c>
     </row>
-    <row r="75" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I75" s="3" t="s">
         <v>433</v>
       </c>
@@ -102535,7 +102535,7 @@
         <v>7.12483187153427</v>
       </c>
     </row>
-    <row r="76" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I76" s="3" t="s">
         <v>439</v>
       </c>
@@ -102552,7 +102552,7 @@
         <v>7.5264038035760299</v>
       </c>
     </row>
-    <row r="77" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I77" s="3" t="s">
         <v>445</v>
       </c>
@@ -102569,7 +102569,7 @@
         <v>4.3454078665251501</v>
       </c>
     </row>
-    <row r="78" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I78" s="3" t="s">
         <v>451</v>
       </c>
@@ -102586,7 +102586,7 @@
         <v>-0.34521646571175002</v>
       </c>
     </row>
-    <row r="79" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I79" s="3" t="s">
         <v>456</v>
       </c>
@@ -102603,7 +102603,7 @@
         <v>9.7789625064696999</v>
       </c>
     </row>
-    <row r="80" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I80" s="3" t="s">
         <v>462</v>
       </c>
@@ -102620,7 +102620,7 @@
         <v>5.4430234596681899</v>
       </c>
     </row>
-    <row r="81" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I81" s="3" t="s">
         <v>468</v>
       </c>
@@ -102637,7 +102637,7 @@
         <v>6.9895419978248103</v>
       </c>
     </row>
-    <row r="82" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I82" s="3" t="s">
         <v>474</v>
       </c>
@@ -102654,7 +102654,7 @@
         <v>0.656011801380608</v>
       </c>
     </row>
-    <row r="83" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I83" s="3" t="s">
         <v>480</v>
       </c>
@@ -102671,7 +102671,7 @@
         <v>4.5630065657944101</v>
       </c>
     </row>
-    <row r="84" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I84" s="3" t="s">
         <v>486</v>
       </c>
@@ -102688,7 +102688,7 @@
         <v>3.6035243940378798</v>
       </c>
     </row>
-    <row r="85" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I85" s="3" t="s">
         <v>491</v>
       </c>
@@ -102705,7 +102705,7 @@
         <v>3.23224785067656</v>
       </c>
     </row>
-    <row r="86" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I86" s="3" t="s">
         <v>496</v>
       </c>
@@ -102722,7 +102722,7 @@
         <v>8.9829225865028306</v>
       </c>
     </row>
-    <row r="87" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I87" s="3" t="s">
         <v>502</v>
       </c>
@@ -102739,7 +102739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I88" s="3" t="s">
         <v>508</v>
       </c>
@@ -102756,7 +102756,7 @@
         <v>8.4191841688910198</v>
       </c>
     </row>
-    <row r="89" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I89" s="3" t="s">
         <v>514</v>
       </c>
@@ -102773,7 +102773,7 @@
         <v>3.7245954135964601</v>
       </c>
     </row>
-    <row r="90" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I90" s="3" t="s">
         <v>520</v>
       </c>
@@ -102790,7 +102790,7 @@
         <v>4.3123794879544599</v>
       </c>
     </row>
-    <row r="91" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I91" s="3" t="s">
         <v>526</v>
       </c>
@@ -102807,7 +102807,7 @@
         <v>4.4720275891394001</v>
       </c>
     </row>
-    <row r="92" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I92" s="3" t="s">
         <v>531</v>
       </c>
@@ -102824,7 +102824,7 @@
         <v>4.33191052936865</v>
       </c>
     </row>
-    <row r="93" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I93" s="3" t="s">
         <v>535</v>
       </c>
@@ -102841,7 +102841,7 @@
         <v>8.0788919079629409</v>
       </c>
     </row>
-    <row r="94" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I94" s="3" t="s">
         <v>541</v>
       </c>
@@ -102858,7 +102858,7 @@
         <v>8.1553410552036603</v>
       </c>
     </row>
-    <row r="95" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I95" s="3" t="s">
         <v>547</v>
       </c>
@@ -102875,7 +102875,7 @@
         <v>2.7577088085295398</v>
       </c>
     </row>
-    <row r="96" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I96" s="3" t="s">
         <v>553</v>
       </c>
@@ -102892,7 +102892,7 @@
         <v>7.1782933494002501</v>
       </c>
     </row>
-    <row r="97" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I97" s="3" t="s">
         <v>559</v>
       </c>
@@ -102909,7 +102909,7 @@
         <v>-0.56681343143393803</v>
       </c>
     </row>
-    <row r="98" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I98" s="3" t="s">
         <v>565</v>
       </c>
@@ -102926,7 +102926,7 @@
         <v>-0.44154390270331001</v>
       </c>
     </row>
-    <row r="99" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I99" s="3" t="s">
         <v>570</v>
       </c>
@@ -102943,7 +102943,7 @@
         <v>0.70385173937551504</v>
       </c>
     </row>
-    <row r="100" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I100" s="3" t="s">
         <v>575</v>
       </c>
@@ -102960,7 +102960,7 @@
         <v>9.8392399607045107</v>
       </c>
     </row>
-    <row r="101" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I101" s="3" t="s">
         <v>581</v>
       </c>
@@ -102977,7 +102977,7 @@
         <v>5.3009910729432299</v>
       </c>
     </row>
-    <row r="102" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I102" s="3" t="s">
         <v>587</v>
       </c>
@@ -102994,7 +102994,7 @@
         <v>0.79121766887186895</v>
       </c>
     </row>
-    <row r="103" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I103" s="3" t="s">
         <v>593</v>
       </c>
@@ -103011,7 +103011,7 @@
         <v>7.2987370713723303</v>
       </c>
     </row>
-    <row r="104" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I104" s="3" t="s">
         <v>599</v>
       </c>
@@ -103028,7 +103028,7 @@
         <v>0.87763017871676996</v>
       </c>
     </row>
-    <row r="105" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I105" s="3" t="s">
         <v>605</v>
       </c>
@@ -103045,7 +103045,7 @@
         <v>10.9690079289289</v>
       </c>
     </row>
-    <row r="106" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I106" s="3" t="s">
         <v>611</v>
       </c>
@@ -103062,7 +103062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I107" s="3" t="s">
         <v>617</v>
       </c>
@@ -103079,7 +103079,7 @@
         <v>8.3672951552539292</v>
       </c>
     </row>
-    <row r="108" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I108" s="3" t="s">
         <v>623</v>
       </c>
@@ -103096,7 +103096,7 @@
         <v>5.0946690396453302</v>
       </c>
     </row>
-    <row r="109" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I109" s="3" t="s">
         <v>629</v>
       </c>
@@ -103113,7 +103113,7 @@
         <v>8.6828088286314102</v>
       </c>
     </row>
-    <row r="110" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I110" s="3" t="s">
         <v>634</v>
       </c>
@@ -103130,7 +103130,7 @@
         <v>9.6603560401206607</v>
       </c>
     </row>
-    <row r="111" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I111" s="3" t="s">
         <v>639</v>
       </c>
@@ -103147,7 +103147,7 @@
         <v>10.027533135001001</v>
       </c>
     </row>
-    <row r="112" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I112" s="3" t="s">
         <v>645</v>
       </c>
@@ -103164,7 +103164,7 @@
         <v>8.4914508508923205</v>
       </c>
     </row>
-    <row r="113" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I113" s="3" t="s">
         <v>651</v>
       </c>
@@ -103181,7 +103181,7 @@
         <v>8.5548924825036394</v>
       </c>
     </row>
-    <row r="114" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I114" s="3" t="s">
         <v>656</v>
       </c>
@@ -103198,7 +103198,7 @@
         <v>0.93225213195767997</v>
       </c>
     </row>
-    <row r="115" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I115" s="3" t="s">
         <v>662</v>
       </c>
@@ -103215,7 +103215,7 @@
         <v>5.1987085755564699</v>
       </c>
     </row>
-    <row r="116" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I116" s="3" t="s">
         <v>668</v>
       </c>
@@ -103232,7 +103232,7 @@
         <v>7.8136810274897197</v>
       </c>
     </row>
-    <row r="117" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I117" s="3" t="s">
         <v>674</v>
       </c>
@@ -103249,7 +103249,7 @@
         <v>6.1670560121575697</v>
       </c>
     </row>
-    <row r="118" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I118" s="3" t="s">
         <v>680</v>
       </c>
@@ -103266,7 +103266,7 @@
         <v>8.8899797516409205</v>
       </c>
     </row>
-    <row r="119" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I119" s="3" t="s">
         <v>686</v>
       </c>
@@ -103283,7 +103283,7 @@
         <v>8.9211290272552901</v>
       </c>
     </row>
-    <row r="120" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I120" s="3" t="s">
         <v>692</v>
       </c>
@@ -103300,7 +103300,7 @@
         <v>1.0760178584362801</v>
       </c>
     </row>
-    <row r="121" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I121" s="3" t="s">
         <v>697</v>
       </c>
@@ -103317,7 +103317,7 @@
         <v>6.8657111300818503</v>
       </c>
     </row>
-    <row r="122" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I122" s="3" t="s">
         <v>703</v>
       </c>
@@ -103334,7 +103334,7 @@
         <v>2.9208355934411099</v>
       </c>
     </row>
-    <row r="123" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I123" s="3" t="s">
         <v>708</v>
       </c>
@@ -103351,7 +103351,7 @@
         <v>7.80133547832411</v>
       </c>
     </row>
-    <row r="124" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I124" s="3" t="s">
         <v>714</v>
       </c>
@@ -103368,7 +103368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I125" s="3" t="s">
         <v>720</v>
       </c>
@@ -103385,7 +103385,7 @@
         <v>10.857694641163601</v>
       </c>
     </row>
-    <row r="126" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I126" s="3" t="s">
         <v>726</v>
       </c>
@@ -103402,7 +103402,7 @@
         <v>0.192592961700365</v>
       </c>
     </row>
-    <row r="127" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I127" s="3" t="s">
         <v>731</v>
       </c>
@@ -103419,7 +103419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I128" s="3" t="s">
         <v>737</v>
       </c>
@@ -103436,7 +103436,7 @@
         <v>9.8345623169575394</v>
       </c>
     </row>
-    <row r="129" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I129" s="3" t="s">
         <v>743</v>
       </c>
@@ -103453,7 +103453,7 @@
         <v>5.1688254178224096</v>
       </c>
     </row>
-    <row r="130" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I130" s="3" t="s">
         <v>749</v>
       </c>
@@ -103470,7 +103470,7 @@
         <v>10.9346487138646</v>
       </c>
     </row>
-    <row r="131" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I131" s="3" t="s">
         <v>754</v>
       </c>
@@ -103487,7 +103487,7 @@
         <v>9.5517672412460204</v>
       </c>
     </row>
-    <row r="132" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I132" s="3" t="s">
         <v>760</v>
       </c>
@@ -103504,7 +103504,7 @@
         <v>9.7080222259654505</v>
       </c>
     </row>
-    <row r="133" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I133" s="3" t="s">
         <v>766</v>
       </c>
@@ -103521,7 +103521,7 @@
         <v>9.6071034019273398</v>
       </c>
     </row>
-    <row r="134" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I134" s="3" t="s">
         <v>772</v>
       </c>
@@ -103538,7 +103538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I135" s="3" t="s">
         <v>778</v>
       </c>
@@ -103555,7 +103555,7 @@
         <v>8.8420502458988306</v>
       </c>
     </row>
-    <row r="136" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I136" s="3" t="s">
         <v>784</v>
       </c>
@@ -103572,7 +103572,7 @@
         <v>2.1361205670476902</v>
       </c>
     </row>
-    <row r="137" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I137" s="3" t="s">
         <v>790</v>
       </c>
@@ -103589,7 +103589,7 @@
         <v>8.4126864458660702</v>
       </c>
     </row>
-    <row r="138" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I138" s="3" t="s">
         <v>796</v>
       </c>
@@ -103606,7 +103606,7 @@
         <v>10.355178442396801</v>
       </c>
     </row>
-    <row r="139" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I139" s="3" t="s">
         <v>802</v>
       </c>
@@ -103623,7 +103623,7 @@
         <v>9.7195166586053805</v>
       </c>
     </row>
-    <row r="140" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I140" s="3" t="s">
         <v>808</v>
       </c>
@@ -103640,7 +103640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I141" s="3" t="s">
         <v>814</v>
       </c>
@@ -103657,7 +103657,7 @@
         <v>8.6219172874671006</v>
       </c>
     </row>
-    <row r="142" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I142" s="3" t="s">
         <v>820</v>
       </c>
@@ -103674,7 +103674,7 @@
         <v>10.708620366536801</v>
       </c>
     </row>
-    <row r="143" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I143" s="3" t="s">
         <v>826</v>
       </c>
@@ -103691,7 +103691,7 @@
         <v>8.5131984252792101</v>
       </c>
     </row>
-    <row r="144" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I144" s="3" t="s">
         <v>832</v>
       </c>
@@ -103708,7 +103708,7 @@
         <v>2.0977602726047602</v>
       </c>
     </row>
-    <row r="145" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I145" s="3" t="s">
         <v>837</v>
       </c>
@@ -103725,7 +103725,7 @@
         <v>6.3074403102096603</v>
       </c>
     </row>
-    <row r="146" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I146" s="3" t="s">
         <v>843</v>
       </c>
@@ -103742,7 +103742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I147" s="3" t="s">
         <v>849</v>
       </c>
@@ -103759,7 +103759,7 @@
         <v>8.9192174815850702</v>
       </c>
     </row>
-    <row r="148" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I148" s="3" t="s">
         <v>855</v>
       </c>
@@ -103776,7 +103776,7 @@
         <v>9.7904836829144397</v>
       </c>
     </row>
-    <row r="149" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I149" s="3" t="s">
         <v>861</v>
       </c>
@@ -103793,7 +103793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I150" s="3" t="s">
         <v>993</v>
       </c>
@@ -103810,7 +103810,7 @@
         <v>3.3965857054198501</v>
       </c>
     </row>
-    <row r="151" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I151" s="3" t="s">
         <v>997</v>
       </c>
@@ -103827,7 +103827,7 @@
         <v>10.616334960977699</v>
       </c>
     </row>
-    <row r="152" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I152" s="3" t="s">
         <v>1003</v>
       </c>
@@ -103844,7 +103844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I153" s="3" t="s">
         <v>1009</v>
       </c>
@@ -103861,7 +103861,7 @@
         <v>9.0899323517870201</v>
       </c>
     </row>
-    <row r="154" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I154" s="3" t="s">
         <v>1015</v>
       </c>
@@ -103878,7 +103878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I155" s="3" t="s">
         <v>1021</v>
       </c>
@@ -103895,7 +103895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I156" s="3" t="s">
         <v>1027</v>
       </c>
@@ -103912,7 +103912,7 @@
         <v>0.28317481222566299</v>
       </c>
     </row>
-    <row r="157" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I157" s="3" t="s">
         <v>1031</v>
       </c>
@@ -103929,7 +103929,7 @@
         <v>-0.50272415093994605</v>
       </c>
     </row>
-    <row r="158" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I158" s="3" t="s">
         <v>1037</v>
       </c>
@@ -103946,7 +103946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I159" s="3" t="s">
         <v>1044</v>
       </c>
@@ -103963,7 +103963,7 @@
         <v>9.8971582563191003</v>
       </c>
     </row>
-    <row r="160" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I160" s="3" t="s">
         <v>1048</v>
       </c>
@@ -103980,7 +103980,7 @@
         <v>7.4760991208463397</v>
       </c>
     </row>
-    <row r="161" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:13" x14ac:dyDescent="0.35">
       <c r="I161" s="4" t="s">
         <v>1053</v>
       </c>
